--- a/IA/tablas_generadas/tablita.xlsx
+++ b/IA/tablas_generadas/tablita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,285 +436,352 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Criterio</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Typography</t>
+          <t>Mercado Libre</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Colors</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Formal vs. Informal</t>
+          <t>PedidoYa</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Characters / Icons / Emblems</t>
+          <t>Sitio de la Imagen</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Navigation (important buttons)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Extra features</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Tutorials or Instructions</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Conclusion</t>
+          <t>Conclusión</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mercado Libre</t>
+          <t>Tipografía</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Su logo no usa una fuente única; Mercado Shops permite combinar dos tipografías para títulos y cuerpo. [19, 30]</t>
+          <t>Utiliza tipografías claras y legibles, como Proxima Nova, para una experiencia de usuario familiar y eficiente, facilitando la lectura en todo el sitio.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>La paleta oficial incluye amarillo (#ffe600) y azul (#2d3277), buscando unidad visual en todo su ecosistema. [7, 27]</t>
+          <t>Emplea la familia de fuentes Amazon Ember, diseñada para una legibilidad óptima y consistente en diversas interfaces y dispositivos.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>El tono general es profesional pero accesible, con comunicación inclusiva adaptada a diversas regiones. [27, 28]</t>
+          <t>Su tipografía es moderna y fresca, manteniendo la claridad para una fácil comprensión de la información de los restaurantes y pedidos.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Utiliza elementos visuales e interfaces consistentes; el logo único no se basa en una fuente estándar. [19, 27]</t>
+          <t>Presenta una tipografía sans-serif estándar, legible y limpia, ideal para la visualización de nombres de componentes y datos técnicos.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Prioriza la accesibilidad, actualizando su manual de estilo para incluir una sección específica de inclusión y mejora. [28]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Ofrece navegación clara para comprar, vender y usar servicios como Mercado Pago, facilitando transacciones eficientes. [18]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Opera como un ecosistema con sub-marcas de e-commerce, fintech y logística, bajo un lenguaje de diseño unificado. [27]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Incluye Mercado Pago para cobros, Mercado Ads y Mercado Shops para tiendas virtuales personalizadas y publicidad. [18, 27]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Ofrece guías de usuario, con un manual de estilo actualizado para equipos de UX creando contenido. [28, 31]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>No se requieren sugerencias de mejora para este sitio web.</t>
+          <t>Experimentar con una fuente de encabezado distintiva, sin sacrificar la legibilidad, podría darle más personalidad al sitio.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Colores</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amazon emplea Amazon Ember, una fuente sans-serif personalizada, buscando legibilidad y un diseño moderno y limpio. [1, 9]</t>
+          <t>Predominan los tonos amarillos y naranjas, asociados a la energía y ofertas, complementados con blancos y grises para un diseño limpio.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sus colores oficiales son naranja (#ff9900), negro (#333e48) y blanco, constantes desde el año 2000. [3, 4, 5, 6, 11]</t>
+          <t>Su paleta se basa en el negro, blanco y un distintivo naranja, creando contraste y dirigiendo la atención a elementos clave.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>La tipografía Amazon Ember equilibra profesionalismo con accesibilidad, creando una sensación cercana al usuario. [1, 2]</t>
+          <t>Combina rojos vibrantes y blancos, transmitiendo inmediatez y apetito, con un diseño visualmente atractivo y reconocible.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>El icónico logo con la flecha sonriente 'A' a 'Z' simboliza su amplia gama de productos. [1, 2]</t>
+          <t>Emplea un encabezado azul brillante con texto blanco, contrastando fuertemente con el fondo blanco general de la página.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Amazon Ember fue diseñada para la experiencia del usuario, garantizando alta legibilidad en diversas pantallas. [1]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>La plataforma se caracteriza por una navegación altamente intuitiva y eficiente, simplificando la búsqueda y compra.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Su estructura está muy organizada para gestionar un vasto catálogo global de productos y servicios con claridad. [1]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Ofrece un enorme catálogo de productos, servicios Prime y una integración fluida con dispositivos Alexa.</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Dispone de extensas secciones de ayuda y guías detalladas para usuarios y vendedores dentro de su plataforma.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>No se requieren sugerencias de mejora para este sitio web.</t>
+          <t>Considerar una paleta de colores más suave o usar el azul dominante de forma más estratégica, quizás para resaltar elementos importantes.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PedidoYa</t>
+          <t>Formal vs. Informal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Utiliza una tipografía sans-serif limpia y moderna, manteniendo coherencia visual tras un refresco de marca. [13, 21]</t>
+          <t>Adopta un tono predominantemente funcional y formal, centrado en la transacción y la eficiencia para el usuario.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Su logo resalta con blanco sobre rojo; una paleta digital asegura buena accesibilidad y contraste. [13, 21]</t>
+          <t>Mantiene un enfoque formal y directo, priorizando la información del producto y la simplicidad en la experiencia de compra.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Adoptó una estrategia más espontánea y abierta, mostrando un tono casual y accesible en su comunicación. [21]</t>
+          <t>Presenta un estilo juvenil y dinámico, utilizando un lenguaje cercano y amigable que fomenta una experiencia relajada y eficiente.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>El logo presenta una 'P' prominente; ahora usan patrones geométricos orgánicos derivados de sus letras. [13, 21]</t>
+          <t>Muestra un tono directo y funcional, centrado en la acción (aprender, armar, comparar) con un lenguaje técnico apropiado para su nicho.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Desarrolló una nueva paleta digital superando problemas de contraste y alcanzando niveles de accesibilidad AA. [21]</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>La aplicación permite descubrir, ordenar y recibir productos a domicilio de forma muy sencilla. [32]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Se expandió a múltiples verticales, incluyendo comestibles y farmacia, con una estructura multi-vertical eficiente. [21, 32]</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Ofrece amplia entrega, desde comida hasta farmacia, complementado con fotos contextuales dinámicas de la vida real. [21, 32]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Como servicio de entrega, proporciona instrucciones claras para el uso de la app y sus diversos servicios.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>No se requieren sugerencias de mejora para este sitio web.</t>
+          <t>Introducir micro-interacciones lúdicas o un lenguaje más cercano en descripciones podría humanizar la experiencia sin perder formalidad.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PCity</t>
+          <t>Personajes / Iconos / Emblemas</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Utiliza fuentes sans-serif claras y legibles para títulos, navegación y descripciones de productos, manteniendo una consistencia básica.</t>
+          <t>Utiliza íconos claros y universales para la navegación, como carritos de compra y corazones, mejorando la usabilidad.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Predomina un esquema de color vibrante azul para el encabezado con blanco y negro, ofreciendo buen contraste y visibilidad.</t>
+          <t>Presenta íconos simples y directos, destacando la flecha debajo de su logo y los símbolos de categorías para una navegación intuitiva.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Adopta un tono amigable y directo con frases como 'Aprendé, Armá y Compará', fomentando una interacción más personal.</t>
+          <t>Emplea un logotipo memorable y íconos modernos que refuerzan su identidad de marca, facilitando la identificación de secciones clave.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Presenta un logo distintivo de un mouse con texto 'pCity', junto a íconos estándar de búsqueda y perfil de usuario.</t>
+          <t>Integra un logo distintivo de ratón/procesador, íconos funcionales (búsqueda, usuario) y las imágenes de producto como elementos centrales.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>El alto contraste entre los colores del sitio web y el tamaño de fuente elegido benefician la legibilidad general del contenido.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>La barra de navegación superior es clara, con enlaces 'Arma tu PC' y un campo de búsqueda funcional.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>La página está bien estructurada con secciones destacadas y una cuadrícula de productos, facilitando la exploración de componentes populares.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>La promesa de 'Arma tu PC' y 'Comparar' sugiere herramientas interactivas para configurar y elegir hardware.</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>El título 'Aprendé' insinúa la posible existencia de guías o tutoriales para ayudar a los usuarios a construir sus PCs.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Integrar botones de 'Comparar' en tarjetas de producto y expandir 'Aprendé' con tutoriales explícitos sobre configuración de PC.</t>
+          <t>Explorar animaciones sutiles para el logo o los íconos, o usar gráficos más expresivos para categorías, mejoraría el atractivo visual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Accesibilidad</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Se esfuerza por una interfaz accesible, con contrastes adecuados y elementos bien definidos para diversos usuarios.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Diseña pensando en la accesibilidad web, ofreciendo opciones para lectores de pantalla y navegación por teclado, promoviendo la inclusión.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Asegura una navegación sencilla y una presentación clara, permitiendo que usuarios con diferentes capacidades interactúen eficazmente.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ofrece un contraste visual fuerte entre el azul del encabezado y el blanco del contenido, facilitando la lectura general de la información.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Implementar mejoras en la navegación por teclado y asegurar descripciones alt para imágenes potenciaría significativamente la accesibilidad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Navegación (botones importantes)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Botones claros para 'Comprar', 'Agregar al carrito' y filtros, facilitando la interacción rápida y eficiente del usuario.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Destaca botones como 'Añadir a la cesta', 'Comprar ahora' y categorías visibles, simplificando el proceso de compra.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Botones prominentes para 'Ver menú', 'Pedir ahora' y filtros de comida, guiando al usuario rápidamente a su elección.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Presenta enlaces de navegación claros en el encabezado ('Arma tu PC', 'Comparar') y elementos de producto clickeables para exploración detallada.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dar mayor prominencia visual a los botones de acción clave y asegurar su consistencia en todo el recorrido del usuario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Organización</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Estructura de categorías y subcategorías bien definida, junto con barras de búsqueda robustas para encontrar productos fácilmente.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Organización jerárquica clara con amplias categorías, filtros detallados y resultados de búsqueda relevantes para una experiencia eficiente.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Presenta restaurantes y opciones de comida por categorías, ubicación y ofertas, permitiendo una búsqueda rápida y efectiva.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Organiza los productos en una cuadrícula clara bajo secciones como 'Componentes populares', apoyándose en una barra de búsqueda superior para encontrar elementos.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Añadir opciones de filtrado avanzadas por especificaciones y comparativas personalizadas mejoraría significativamente la experiencia del usuario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Características Extra</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ofrece Mercado Crédito, envíos rápidos con Mercado Envíos y una plataforma de publicidad para vendedores.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Destaca suscripciones Prime con beneficios exclusivos, servicios en la nube (AWS) y una vasta oferta de productos digitales.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Incluye seguimiento de pedidos en tiempo real, opciones de pago diversas y la posibilidad de programar entregas.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sus características destacadas son las herramientas 'Arma tu PC' y 'Comparar', esenciales para usuarios interesados en construir o evaluar equipos.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Integrar más profundamente las funciones de 'Arma tu PC' y 'Comparar' directamente en las fichas de producto facilitaría su uso.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Tutoriales o Instrucciones</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Proporciona centros de ayuda detallados y tutoriales para compradores y vendedores, cubriendo diversas operaciones.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Dispone de una extensa sección de ayuda, guías para el comprador y vendedor, y soporte al cliente para cualquier consulta.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Ofrece guías claras sobre cómo realizar pedidos, usar promociones y resolver problemas comunes de manera eficiente.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Posee un enlace 'Información' que probablemente dirige a tutoriales o guías de uso, esencial para el público técnico al que apunta.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Desarrollar tutoriales interactivos para guiar a los usuarios en el proceso de 'Arma tu PC' mejoraría la experiencia del novato.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Impresión General del Sitio</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Proporciona una plataforma robusta y confiable para comercio electrónico, con un enfoque en la eficiencia transaccional y amplia variedad.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Se percibe como un gigante del e-commerce, ofreciendo conveniencia, una selección inmensa y servicios integrados.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Transmite una sensación de rapidez y conveniencia para la entrega de comida y productos, con una interfaz muy directa.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ofrece una impresión de sitio especializado y funcional para hardware de PC, con una interfaz limpia y centrada en componentes.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Refinar los elementos visuales y expandir las herramientas de personalización podría solidificar su posición como referente en el nicho.</t>
         </is>
       </c>
     </row>

--- a/IA/tablas_generadas/tablita.xlsx
+++ b/IA/tablas_generadas/tablita.xlsx
@@ -436,96 +436,96 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Criterio</t>
+          <t>criterion</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mercado Libre</t>
+          <t>mercado_libre</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>amazon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PedidoYa</t>
+          <t>pedidoya</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Sitio de la Imagen</t>
+          <t>website_from_image</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Conclusión</t>
+          <t>conclusion</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tipografía</t>
+          <t>Typography</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Utiliza tipografías claras y legibles, como Proxima Nova, para una experiencia de usuario familiar y eficiente, facilitando la lectura en todo el sitio.</t>
+          <t>Utiliza una tipografía Sans-serif clara y legible, como Arial o Open Sans, que asegura una buena experiencia de lectura en todos sus dispositivos.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Emplea la familia de fuentes Amazon Ember, diseñada para una legibilidad óptima y consistente en diversas interfaces y dispositivos.</t>
+          <t>Emplea una tipografía distintiva (Amazon Ember) para mantener consistencia visual, facilitando la identificación de la marca y la lectura de descripciones de productos.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Su tipografía es moderna y fresca, manteniendo la claridad para una fácil comprensión de la información de los restaurantes y pedidos.</t>
+          <t>Su tipografía es moderna y amigable, a menudo usando una fuente redondeada y sencilla para transmitir accesibilidad y rapidez en el servicio de entrega.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Presenta una tipografía sans-serif estándar, legible y limpia, ideal para la visualización de nombres de componentes y datos técnicos.</t>
+          <t>La tipografía es limpia y moderna, principalmente sans-serif, ofreciendo buena legibilidad para nombres de productos y encabezados importantes en la página.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Experimentar con una fuente de encabezado distintiva, sin sacrificar la legibilidad, podría darle más personalidad al sitio.</t>
+          <t>Considerar incorporar variaciones de peso o tamaño para destacar mejor elementos clave sin comprometer la consistencia global del sitio.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colores</t>
+          <t>Colors</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Predominan los tonos amarillos y naranjas, asociados a la energía y ofertas, complementados con blancos y grises para un diseño limpio.</t>
+          <t>Domina el amarillo vibrante junto con el azul oscuro, creando un contraste energético que llama la atención y resalta ofertas especiales.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Su paleta se basa en el negro, blanco y un distintivo naranja, creando contraste y dirigiendo la atención a elementos clave.</t>
+          <t>Predominan el blanco, negro y un toque de naranja/azul, generando un esquema de colores profesional que facilita la concentración en los productos mostrados.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Combina rojos vibrantes y blancos, transmitiendo inmediatez y apetito, con un diseño visualmente atractivo y reconocible.</t>
+          <t>Se caracteriza por el rojo brillante y el blanco, transmitiendo energía y urgencia, lo cual es muy apropiado para su modelo de negocio de entrega rápida.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Emplea un encabezado azul brillante con texto blanco, contrastando fuertemente con el fondo blanco general de la página.</t>
+          <t>La paleta se centra en un azul brillante para la cabecera y el blanco para el contenido, generando una apariencia limpia y enfocada en los productos.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Considerar una paleta de colores más suave o usar el azul dominante de forma más estratégica, quizás para resaltar elementos importantes.</t>
+          <t>Explorar el uso de tonos complementarios sutiles para áreas interactivas, mejorando la jerarquía visual sin saturar el diseño existente.</t>
         </is>
       </c>
     </row>
@@ -537,251 +537,251 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adopta un tono predominantemente funcional y formal, centrado en la transacción y la eficiencia para el usuario.</t>
+          <t>Adopta un tono semi-formal, equilibrando la profesionalidad de las transacciones con un lenguaje cercano para construir confianza con sus usuarios.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mantiene un enfoque formal y directo, priorizando la información del producto y la simplicidad en la experiencia de compra.</t>
+          <t>Mantiene un tono predominantemente formal y transaccional, priorizando la claridad y eficiencia en la comunicación de detalles de productos y servicios.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Presenta un estilo juvenil y dinámico, utilizando un lenguaje cercano y amigable que fomenta una experiencia relajada y eficiente.</t>
+          <t>Utiliza un lenguaje muy informal y amigable, con emojis y expresiones coloquiales que reflejan la juventud y dinamismo de su público objetivo.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Muestra un tono directo y funcional, centrado en la acción (aprender, armar, comparar) con un lenguaje técnico apropiado para su nicho.</t>
+          <t>Muestra un tono más formal y directo, enfocado en la funcionalidad y la información técnica, adecuado para un nicho de componentes tecnológicos.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Introducir micro-interacciones lúdicas o un lenguaje más cercano en descripciones podría humanizar la experiencia sin perder formalidad.</t>
+          <t>Podría beneficiarse de introducir elementos de lenguaje ligeramente más conversacionales para fomentar mayor engagement con la comunidad de ensambladores.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Personajes / Iconos / Emblemas</t>
+          <t>Characters / Icons / Emblems</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Utiliza íconos claros y universales para la navegación, como carritos de compra y corazones, mejorando la usabilidad.</t>
+          <t>Su logo con la balanza y flecha simboliza comercio y eficiencia; los iconos son minimalistas y funcionales, facilitando la navegación sin distracciones.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Presenta íconos simples y directos, destacando la flecha debajo de su logo y los símbolos de categorías para una navegación intuitiva.</t>
+          <t>El logo con la flecha de la 'a' a la 'z' subraya su vasta oferta; los iconos son universales y muy reconocibles, promoviendo una interacción intuitiva.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Emplea un logotipo memorable y íconos modernos que refuerzan su identidad de marca, facilitando la identificación de secciones clave.</t>
+          <t>Usa un logo sencillo con un globo de diálogo y un tenedor, junto a iconos claros que representan categorías de comida y estados de pedidos.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Integra un logo distintivo de ratón/procesador, íconos funcionales (búsqueda, usuario) y las imágenes de producto como elementos centrales.</t>
+          <t>El logo es una combinación de un ratón de PC con un embudo/circuito, y los iconos (lupa, persona) son estándar y claros, mejorando la usabilidad.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Explorar animaciones sutiles para el logo o los íconos, o usar gráficos más expresivos para categorías, mejoraría el atractivo visual.</t>
+          <t>Desarrollar un conjunto de iconos personalizados y únicos que reflejen aún más la temática de construcción de PCs, añadiendo personalidad de marca.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Accesibilidad</t>
+          <t>Accessibility</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Se esfuerza por una interfaz accesible, con contrastes adecuados y elementos bien definidos para diversos usuarios.</t>
+          <t>Ofrece opciones como descripciones de imágenes y compatibilidad con lectores de pantalla, buscando ser inclusivo para usuarios con diversas capacidades.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Diseña pensando en la accesibilidad web, ofreciendo opciones para lectores de pantalla y navegación por teclado, promoviendo la inclusión.</t>
+          <t>Invierte en características de accesibilidad robustas, incluyendo navegación por teclado y soporte para texto de alto contraste, garantizando una experiencia para todos.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Asegura una navegación sencilla y una presentación clara, permitiendo que usuarios con diferentes capacidades interactúen eficazmente.</t>
+          <t>Se enfoca en una interfaz sencilla con grandes botones, facilitando el uso para usuarios con posibles dificultades motoras o visuales leves, priorizando la rapidez.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ofrece un contraste visual fuerte entre el azul del encabezado y el blanco del contenido, facilitando la lectura general de la información.</t>
+          <t>La legibilidad del texto y el contraste de colores son adecuados, lo que sugiere una buena base para la accesibilidad general de la plataforma.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Implementar mejoras en la navegación por teclado y asegurar descripciones alt para imágenes potenciaría significativamente la accesibilidad.</t>
+          <t>Implementar alternativas de texto para todas las imágenes y asegurar una navegación totalmente controlable por teclado para usuarios con discapacidades.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Navegación (botones importantes)</t>
+          <t>Navigation (important buttons)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Botones claros para 'Comprar', 'Agregar al carrito' y filtros, facilitando la interacción rápida y eficiente del usuario.</t>
+          <t>Botones de "Comprar" y "Agregar al carrito" son prominentes, junto a una barra de búsqueda eficiente, guiando al usuario rápidamente hacia la compra.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Destaca botones como 'Añadir a la cesta', 'Comprar ahora' y categorías visibles, simplificando el proceso de compra.</t>
+          <t>Destaca por su navegación intuitiva con un mega-menú y botones de acción claros, permitiendo a los usuarios encontrar productos con facilidad.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Botones prominentes para 'Ver menú', 'Pedir ahora' y filtros de comida, guiando al usuario rápidamente a su elección.</t>
+          <t>Sus botones de "Pedir" y "Reordenar" son muy visibles, con categorías de restaurantes claras, facilitando la elección y confirmación rápida de pedidos.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Presenta enlaces de navegación claros en el encabezado ('Arma tu PC', 'Comparar') y elementos de producto clickeables para exploración detallada.</t>
+          <t>Los botones "Información", "Arma tu PC", "Comparar" son claros en la cabecera, junto a un campo de búsqueda prominente para encontrar productos.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dar mayor prominencia visual a los botones de acción clave y asegurar su consistencia en todo el recorrido del usuario.</t>
+          <t>Mejorar la visibilidad de los botones de filtros y opciones de ordenamiento dentro de la sección de productos para una mejor exploración.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Organización</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Estructura de categorías y subcategorías bien definida, junto con barras de búsqueda robustas para encontrar productos fácilmente.</t>
+          <t>La organización de productos por categorías, tiendas oficiales y secciones de ofertas es clara, permitiendo una búsqueda eficiente para los usuarios.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Organización jerárquica clara con amplias categorías, filtros detallados y resultados de búsqueda relevantes para una experiencia eficiente.</t>
+          <t>Utiliza una categorización detallada y filtros avanzados, organizando eficazmente millones de productos para una experiencia de compra personalizada y sencilla.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Presenta restaurantes y opciones de comida por categorías, ubicación y ofertas, permitiendo una búsqueda rápida y efectiva.</t>
+          <t>La organización por tipo de cocina, promociones y distancia es eficiente, permitiendo a los usuarios descubrir y seleccionar restaurantes rápidamente.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Organiza los productos en una cuadrícula clara bajo secciones como 'Componentes populares', apoyándose en una barra de búsqueda superior para encontrar elementos.</t>
+          <t>Presenta los "Componentes populares" de manera atractiva en cuadrícula, con títulos de productos claros, mostrando una organización lógica inicial.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Añadir opciones de filtrado avanzadas por especificaciones y comparativas personalizadas mejoraría significativamente la experiencia del usuario.</t>
+          <t>Incluir más opciones de filtrado y ordenamiento detallado (por socket, generación, marca) para los componentes populares mejoraría la experiencia.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Características Extra</t>
+          <t>Extra features</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ofrece Mercado Crédito, envíos rápidos con Mercado Envíos y una plataforma de publicidad para vendedores.</t>
+          <t>Ofrece Mercado Puntos, envíos Flex, y un sistema de preguntas y respuestas, añadiendo valor a la experiencia de compra y fidelización del cliente.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Destaca suscripciones Prime con beneficios exclusivos, servicios en la nube (AWS) y una vasta oferta de productos digitales.</t>
+          <t>Presenta Amazon Prime, reseñas detalladas, listas de deseos y recomendaciones personalizadas, enriqueciendo significativamente la interacción del usuario.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Incluye seguimiento de pedidos en tiempo real, opciones de pago diversas y la posibilidad de programar entregas.</t>
+          <t>Dispone de seguimiento de pedidos en tiempo real, promociones exclusivas y la opción de calificar restaurantes, mejorando la conveniencia del servicio.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sus características destacadas son las herramientas 'Arma tu PC' y 'Comparar', esenciales para usuarios interesados en construir o evaluar equipos.</t>
+          <t>Ofrece "Arma tu PC" y "Comparar" como características distintivas, lo cual es muy útil para su audiencia especializada en hardware de computadoras.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Integrar más profundamente las funciones de 'Arma tu PC' y 'Comparar' directamente en las fichas de producto facilitaría su uso.</t>
+          <t>Considerar la implementación de un foro comunitario o un blog con guías de ensamblaje para fomentar la interacción y educar a los usuarios.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tutoriales o Instrucciones</t>
+          <t>Tutorials or Instructions</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Proporciona centros de ayuda detallados y tutoriales para compradores y vendedores, cubriendo diversas operaciones.</t>
+          <t>Proporciona secciones de ayuda y guías para vendedores y compradores, facilitando el uso de la plataforma y resolviendo dudas comunes.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dispone de una extensa sección de ayuda, guías para el comprador y vendedor, y soporte al cliente para cualquier consulta.</t>
+          <t>Cuenta con amplias páginas de ayuda, tutoriales en video y descripciones detalladas de productos, asistiendo a los usuarios en cada etapa de su compra.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ofrece guías claras sobre cómo realizar pedidos, usar promociones y resolver problemas comunes de manera eficiente.</t>
+          <t>Sus instrucciones son simples y directas para realizar pedidos, con una sección de preguntas frecuentes que resuelve dudas básicas de manera eficiente.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Posee un enlace 'Información' que probablemente dirige a tutoriales o guías de uso, esencial para el público técnico al que apunta.</t>
+          <t>La sección "Arma tu PC" sugiere que hay guías implícitas, pero una sección explícita de "Información" o "Ayuda" sería beneficiosa y más visible.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Desarrollar tutoriales interactivos para guiar a los usuarios en el proceso de 'Arma tu PC' mejoraría la experiencia del novato.</t>
+          <t>Desarrollar una base de conocimientos completa con tutoriales detallados sobre la compatibilidad de componentes y guías de ensamblaje paso a paso.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Impresión General del Sitio</t>
+          <t>Overall User Experience</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Proporciona una plataforma robusta y confiable para comercio electrónico, con un enfoque en la eficiencia transaccional y amplia variedad.</t>
+          <t>Ofrece una experiencia completa y funcional, con facilidad de compra y venta, aunque a veces la saturación de ofertas puede ser abrumadora.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Se percibe como un gigante del e-commerce, ofreciendo conveniencia, una selección inmensa y servicios integrados.</t>
+          <t>Proporciona una UX pulida y eficiente, priorizando la comodidad y personalización, lo que permite a los usuarios encontrar y comprar con facilidad.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Transmite una sensación de rapidez y conveniencia para la entrega de comida y productos, con una interfaz muy directa.</t>
+          <t>Se enfoca en una experiencia rápida y sin fricciones para pedir comida, con una interfaz intuitiva que minimiza los pasos necesarios para completar la orden.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ofrece una impresión de sitio especializado y funcional para hardware de PC, con una interfaz limpia y centrada en componentes.</t>
+          <t>La interfaz es limpia y enfocada, facilitando la visualización de componentes y la navegación básica para usuarios interesados en ensamblar PCs.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Refinar los elementos visuales y expandir las herramientas de personalización podría solidificar su posición como referente en el nicho.</t>
+          <t>Optimizar los tiempos de carga de las páginas de productos y mejorar la retroalimentación visual en las interacciones para una experiencia más fluida.</t>
         </is>
       </c>
     </row>

--- a/IA/tablas_generadas/tablita.xlsx
+++ b/IA/tablas_generadas/tablita.xlsx
@@ -441,27 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mercado_libre</t>
+          <t>Mercado Libre</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>pedidoya</t>
+          <t>PedidoYa</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>website_from_image</t>
+          <t>Website from Image</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>conclusion</t>
+          <t>Conclusion</t>
         </is>
       </c>
     </row>
@@ -473,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Utiliza una tipografía Sans-serif clara y legible, como Arial o Open Sans, que asegura una buena experiencia de lectura en todos sus dispositivos.</t>
+          <t>Utiliza una tipografía sans-serif personalizada, con líneas suavizadas y redondeadas, para una legibilidad óptima y moderna en su plataforma. [8, 40]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Emplea una tipografía distintiva (Amazon Ember) para mantener consistencia visual, facilitando la identificación de la marca y la lectura de descripciones de productos.</t>
+          <t>Emplea principalmente Amazon Ember, una sans-serif personalizada, que asegura una lectura clara y profesional en todos sus diversos dispositivos y plataformas. [5, 9, 14]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Su tipografía es moderna y amigable, a menudo usando una fuente redondeada y sencilla para transmitir accesibilidad y rapidez en el servicio de entrega.</t>
+          <t>Muestra una tipografía sans-serif moderna y limpia en su interfaz, priorizando la claridad y facilidad de lectura para una experiencia de usuario eficiente. [33]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>La tipografía es limpia y moderna, principalmente sans-serif, ofreciendo buena legibilidad para nombres de productos y encabezados importantes en la página.</t>
+          <t>Utiliza una tipografía sans-serif limpia y estándar, asegurando excelente legibilidad para títulos, descripciones y elementos de navegación de la página.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Considerar incorporar variaciones de peso o tamaño para destacar mejor elementos clave sin comprometer la consistencia global del sitio.</t>
+          <t>Explorar variaciones de fuentes que refuercen la identidad de la marca, manteniendo la claridad y adaptándose mejor a la estética tecnológica.</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Domina el amarillo vibrante junto con el azul oscuro, creando un contraste energético que llama la atención y resalta ofertas especiales.</t>
+          <t>Su paleta distintiva combina amarillo brillante, azul profundo y blanco, simbolizando energía, confianza y una plataforma abierta para todos. [2, 3, 8, 19]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Predominan el blanco, negro y un toque de naranja/azul, generando un esquema de colores profesional que facilita la concentración en los productos mostrados.</t>
+          <t>Predominan el naranja energético, el negro y el blanco; estos colores clave crean una identidad de marca reconocible y funcional en su interfaz. [1, 4, 6, 15]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Se caracteriza por el rojo brillante y el blanco, transmitiendo energía y urgencia, lo cual es muy apropiado para su modelo de negocio de entrega rápida.</t>
+          <t>Ha evolucionado su paleta cromática con un enfoque moderno, usando colores vibrantes y frescos que reflejan su estrategia expansiva y espontánea. [11, 33]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>La paleta se centra en un azul brillante para la cabecera y el blanco para el contenido, generando una apariencia limpia y enfocada en los productos.</t>
+          <t>La paleta principal es azul vibrante para el encabezado, blanco de fondo y negro para el texto, ofreciendo un contraste nítido y funcional.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Explorar el uso de tonos complementarios sutiles para áreas interactivas, mejorando la jerarquía visual sin saturar el diseño existente.</t>
+          <t>Introducir sutilmente colores secundarios para destacar llamadas a la acción o elementos interactivos podría mejorar la jerarquía visual del diseño.</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adopta un tono semi-formal, equilibrando la profesionalidad de las transacciones con un lenguaje cercano para construir confianza con sus usuarios.</t>
+          <t>Mantiene un equilibrio, con un diseño que transmite profesionalismo en transacciones y una accesibilidad amigable que fomenta la comunidad. [2, 8, 32]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mantiene un tono predominantemente formal y transaccional, priorizando la claridad y eficiencia en la comunicación de detalles de productos y servicios.</t>
+          <t>Su diseño es profesional y metódico, centrado en la eficiencia de la compra, aunque mantiene un tono accesible para el cliente. [5, 18, 31]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Utiliza un lenguaje muy informal y amigable, con emojis y expresiones coloquiales que reflejan la juventud y dinamismo de su público objetivo.</t>
+          <t>Ha adoptado una estrategia más espontánea y abierta, inclinándose hacia un estilo informal que promueve cercanía y facilidad de uso. [33]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Muestra un tono más formal y directo, enfocado en la funcionalidad y la información técnica, adecuado para un nicho de componentes tecnológicos.</t>
+          <t>El diseño es profesional y directo, centrado en la funcionalidad de comparación y armado de componentes de PC, transmitiendo seriedad.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Podría beneficiarse de introducir elementos de lenguaje ligeramente más conversacionales para fomentar mayor engagement con la comunidad de ensambladores.</t>
+          <t>Adoptar un tono más amigable en descripciones o mensajes podría conectar mejor con usuarios menos técnicos, manteniendo profesionalismo.</t>
         </is>
       </c>
     </row>
@@ -569,27 +569,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Su logo con la balanza y flecha simboliza comercio y eficiencia; los iconos son minimalistas y funcionales, facilitando la navegación sin distracciones.</t>
+          <t>Presenta el icónico logotipo de dos manos estrechándose, que simboliza confianza, alianza y una sólida conexión dentro de su comunidad. [2, 8]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>El logo con la flecha de la 'a' a la 'z' subraya su vasta oferta; los iconos son universales y muy reconocibles, promoviendo una interacción intuitiva.</t>
+          <t>Destaca por la flecha de la sonrisa que va de la 'A' a la 'Z' en su logo, sugiriendo variedad y la satisfacción completa del cliente. [5]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Usa un logo sencillo con un globo de diálogo y un tenedor, junto a iconos claros que representan categorías de comida y estados de pedidos.</t>
+          <t>Utiliza un logotipo moderno que incluye elementos visuales distintivos, reforzando su identidad como una plataforma ágil de delivery. [45]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>El logo es una combinación de un ratón de PC con un embudo/circuito, y los iconos (lupa, persona) son estándar y claros, mejorando la usabilidad.</t>
+          <t>Un logo de ratón estilizado con 'Rity', e iconos de búsqueda y perfil genéricos, son claros y funcionales.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Desarrollar un conjunto de iconos personalizados y únicos que reflejen aún más la temática de construcción de PCs, añadiendo personalidad de marca.</t>
+          <t>El diseño de iconos más únicos o un emblema secundario podría reforzar la singularidad de la marca en el nicho tecnológico.</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ofrece opciones como descripciones de imágenes y compatibilidad con lectores de pantalla, buscando ser inclusivo para usuarios con diversas capacidades.</t>
+          <t>Integra funcionalidades para asegurar la usabilidad general, aunque detalles específicos de accesibilidad no fueron encontrados en la búsqueda. [2]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Invierte en características de accesibilidad robustas, incluyendo navegación por teclado y soporte para texto de alto contraste, garantizando una experiencia para todos.</t>
+          <t>Ofrece extensas funciones como VoiceView, textos ajustables y descripciones de audio, garantizando que su plataforma sea inclusiva para todos los usuarios. [7, 12, 25, 31]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Se enfoca en una interfaz sencilla con grandes botones, facilitando el uso para usuarios con posibles dificultades motoras o visuales leves, priorizando la rapidez.</t>
+          <t>Su rebranding abordó problemas previos de accesibilidad y contraste en la paleta de colores, buscando una mayor legibilidad para los usuarios. [33]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>La legibilidad del texto y el contraste de colores son adecuados, lo que sugiere una buena base para la accesibilidad general de la plataforma.</t>
+          <t>La combinación de colores y tamaños de fuente ofrece buena legibilidad. No se aprecian características avanzadas de accesibilidad en la interfaz.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Implementar alternativas de texto para todas las imágenes y asegurar una navegación totalmente controlable por teclado para usuarios con discapacidades.</t>
+          <t>Implementar opciones de contraste alto o herramientas de lectura de pantalla mejoraría la experiencia para usuarios con diversas necesidades visuales.</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Botones de "Comprar" y "Agregar al carrito" son prominentes, junto a una barra de búsqueda eficiente, guiando al usuario rápidamente hacia la compra.</t>
+          <t>Cuenta con una interfaz de usuario intuitiva que guía a los usuarios, con botones clave para búsquedas y gestión de compras, facilitando el recorrido. [2]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Destaca por su navegación intuitiva con un mega-menú y botones de acción claros, permitiendo a los usuarios encontrar productos con facilidad.</t>
+          <t>Tiene una navegación fluida con una barra de búsqueda central, botones de compra rápida y un menú claro para explorar amplias categorías de productos. [18, 21, 31]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sus botones de "Pedir" y "Reordenar" son muy visibles, con categorías de restaurantes claras, facilitando la elección y confirmación rápida de pedidos.</t>
+          <t>Ofrece una navegación sencilla, con botones destacados para pedidos, seguimiento y opciones de cuenta, optimizando la experiencia de entrega rápida.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Los botones "Información", "Arma tu PC", "Comparar" son claros en la cabecera, junto a un campo de búsqueda prominente para encontrar productos.</t>
+          <t>La barra superior presenta enlaces vitales: 'Información', 'Arma tu PC', 'Comparar', y una barra de búsqueda prominente.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mejorar la visibilidad de los botones de filtros y opciones de ordenamiento dentro de la sección de productos para una mejor exploración.</t>
+          <t>Una disposición mejorada de los elementos clave, destacando 'Arma tu PC', podría optimizar el flujo de usuarios.</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>La organización de productos por categorías, tiendas oficiales y secciones de ofertas es clara, permitiendo una búsqueda eficiente para los usuarios.</t>
+          <t>Opera con una estructura jerárquica y funcional, con divisiones claras en tecnología, operaciones y finanzas, optimizando su gestión regional. [27, 29, 43]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Utiliza una categorización detallada y filtros avanzados, organizando eficazmente millones de productos para una experiencia de compra personalizada y sencilla.</t>
+          <t>Presenta una estructura organizacional funcional y jerárquica, con equipos especializados en funciones y divisiones geográficas, permitiendo una gestión global eficiente. [23, 24, 35]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>La organización por tipo de cocina, promociones y distancia es eficiente, permitiendo a los usuarios descubrir y seleccionar restaurantes rápidamente.</t>
+          <t>Como parte de Delivery Hero, su organización interna se enfoca en la eficiencia operativa para gestionar entregas en múltiples mercados. [47]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Presenta los "Componentes populares" de manera atractiva en cuadrícula, con títulos de productos claros, mostrando una organización lógica inicial.</t>
+          <t>La página está organizada con un encabezado fijo, título principal y componentes populares en un diseño de cuadrícula estructurada.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Incluir más opciones de filtrado y ordenamiento detallado (por socket, generación, marca) para los componentes populares mejoraría la experiencia.</t>
+          <t>Añadir filtros o categorías claras para los componentes populares facilitaría la exploración y la búsqueda de productos específicos.</t>
         </is>
       </c>
     </row>
@@ -697,27 +697,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ofrece Mercado Puntos, envíos Flex, y un sistema de preguntas y respuestas, añadiendo valor a la experiencia de compra y fidelización del cliente.</t>
+          <t>Ofrece un ecosistema integral de servicios como Mercado Pago y Mercado Envíos, expandiendo sus capacidades más allá de las compras básicas. [2]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Presenta Amazon Prime, reseñas detalladas, listas de deseos y recomendaciones personalizadas, enriqueciendo significativamente la interacción del usuario.</t>
+          <t>Destaca por sus recomendaciones personalizadas, pedidos con un clic, y características innovadoras como Amazon Go y el asistente virtual Alexa. [20, 21, 31]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dispone de seguimiento de pedidos en tiempo real, promociones exclusivas y la opción de calificar restaurantes, mejorando la conveniencia del servicio.</t>
+          <t>Permite el seguimiento de pedidos en tiempo real, opciones de pago variadas y personalización de pedidos, enriqueciendo la experiencia de delivery.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ofrece "Arma tu PC" y "Comparar" como características distintivas, lo cual es muy útil para su audiencia especializada en hardware de computadoras.</t>
+          <t>Las funciones de 'Arma tu PC' y 'Comparar' indican herramientas interactivas avanzadas para configurar y evaluar hardware.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Considerar la implementación de un foro comunitario o un blog con guías de ensamblaje para fomentar la interacción y educar a los usuarios.</t>
+          <t>Destacar visiblemente las características únicas como 'Arma tu PC' con descripciones claras invitaría a más usuarios a explorarlas.</t>
         </is>
       </c>
     </row>
@@ -729,59 +729,59 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Proporciona secciones de ayuda y guías para vendedores y compradores, facilitando el uso de la plataforma y resolviendo dudas comunes.</t>
+          <t>La plataforma integra guías claras para vendedores sobre cómo usar sus herramientas, lo que facilita la creación y gestión de tiendas online. [44]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cuenta con amplias páginas de ayuda, tutoriales en video y descripciones detalladas de productos, asistiendo a los usuarios en cada etapa de su compra.</t>
+          <t>Proporciona una bienvenida opcional para nuevos usuarios y asistentes de voz que incluyen tutoriales en pantalla, facilitando la adaptación del usuario. [20, 28]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sus instrucciones son simples y directas para realizar pedidos, con una sección de preguntas frecuentes que resuelve dudas básicas de manera eficiente.</t>
+          <t>Incorpora instrucciones sencillas para realizar pedidos, personalizar entregas y utilizar las funcionalidades de la aplicación de manera intuitiva.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>La sección "Arma tu PC" sugiere que hay guías implícitas, pero una sección explícita de "Información" o "Ayuda" sería beneficiosa y más visible.</t>
+          <t>El título 'Aprendé, Armá y Compará' sugiere una sección educativa, aunque no hay tutoriales explícitos visibles aquí.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Desarrollar una base de conocimientos completa con tutoriales detallados sobre la compatibilidad de componentes y guías de ensamblaje paso a paso.</t>
+          <t>Ofrecer mini-guías o tooltips interactivos sobre cómo usar las funciones de armado y comparación podría enriquecer la experiencia.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall User Experience</t>
+          <t>User Interface Cohesion</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ofrece una experiencia completa y funcional, con facilidad de compra y venta, aunque a veces la saturación de ofertas puede ser abrumadora.</t>
+          <t>A pesar de una arquitectura inicial fragmentada, ha logrado una identidad unificada con elementos visuales consistentes en todo su ecosistema. [2, 44]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Proporciona una UX pulida y eficiente, priorizando la comodidad y personalización, lo que permite a los usuarios encontrar y comprar con facilidad.</t>
+          <t>Posee una cohesión de interfaz excepcional, manteniendo un diseño limpio y consistente en el sitio web, aplicaciones y materiales de marketing globalmente. [5, 18, 31]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Se enfoca en una experiencia rápida y sin fricciones para pedir comida, con una interfaz intuitiva que minimiza los pasos necesarios para completar la orden.</t>
+          <t>Su reciente proceso de rebranding buscó una identidad visual más holística, unificando la experiencia en todas sus plataformas digitales. [33]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>La interfaz es limpia y enfocada, facilitando la visualización de componentes y la navegación básica para usuarios interesados en ensamblar PCs.</t>
+          <t>El diseño demuestra consistencia en tipografía, colores y disposición de elementos, generando una experiencia visual unificada y ordenada.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Optimizar los tiempos de carga de las páginas de productos y mejorar la retroalimentación visual en las interacciones para una experiencia más fluida.</t>
+          <t>Reforzar la identidad visual con elementos gráficos recurrentes, quizás en los cuadros de producto, podría aumentar la sensación de marca.</t>
         </is>
       </c>
     </row>

--- a/IA/tablas_generadas/tablita.xlsx
+++ b/IA/tablas_generadas/tablita.xlsx
@@ -436,32 +436,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>criterion</t>
+          <t>criterion_or_website</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mercado Libre</t>
+          <t>website_1_value</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>website_2_value</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PedidoYa</t>
+          <t>website_3_value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Website from Image</t>
+          <t>website_4_value</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Conclusion</t>
+          <t>conclusion</t>
         </is>
       </c>
     </row>
@@ -473,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Utiliza una tipografía sans-serif personalizada, con líneas suavizadas y redondeadas, para una legibilidad óptima y moderna en su plataforma. [8, 40]</t>
+          <t>Utiliza fuentes sans-serif claras y legibles, como Segoe UI, con una jerarquía consistente para títulos y texto principal.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Emplea principalmente Amazon Ember, una sans-serif personalizada, que asegura una lectura clara y profesional en todos sus diversos dispositivos y plataformas. [5, 9, 14]</t>
+          <t>Emplea tipografías sans-serif modernas y limpias, priorizando la legibilidad en subtítulos y descripciones de fotos.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Muestra una tipografía sans-serif moderna y limpia en su interfaz, priorizando la claridad y facilidad de lectura para una experiencia de usuario eficiente. [33]</t>
+          <t>Fuentes sans-serif profesionales como Open Sans, garantizando alta legibilidad para contenido empresarial y perfiles detallados.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Utiliza una tipografía sans-serif limpia y estándar, asegurando excelente legibilidad para títulos, descripciones y elementos de navegación de la página.</t>
+          <t>Tipografía sans-serif estándar y sencilla, lo que asegura buena legibilidad para nombres de productos y títulos.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Explorar variaciones de fuentes que refuercen la identidad de la marca, manteniendo la claridad y adaptándose mejor a la estética tecnológica.</t>
+          <t>Podría explorar una tipografía más distintiva o una paleta de fuentes complementarias para añadir carácter y diferenciación visual.</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Su paleta distintiva combina amarillo brillante, azul profundo y blanco, simbolizando energía, confianza y una plataforma abierta para todos. [2, 3, 8, 19]</t>
+          <t>Predominan azules y blancos, transmitiendo confianza y familiaridad, con un contraste elevado para la lectura.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Predominan el naranja energético, el negro y el blanco; estos colores clave crean una identidad de marca reconocible y funcional en su interfaz. [1, 4, 6, 15]</t>
+          <t>Logo con gradientes vibrantes, interfaz principalmente blanca y texto negro, destacando el contenido visual.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ha evolucionado su paleta cromática con un enfoque moderno, usando colores vibrantes y frescos que reflejan su estrategia expansiva y espontánea. [11, 33]</t>
+          <t>Esquema de colores corporativos: azul, blanco y gris, que proyecta profesionalismo y un entorno de trabajo serio.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>La paleta principal es azul vibrante para el encabezado, blanco de fondo y negro para el texto, ofreciendo un contraste nítido y funcional.</t>
+          <t>Dominante cabecera azul brillante con texto blanco, cuerpo de la página blanco con texto negro, colores funcionales.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Introducir sutilmente colores secundarios para destacar llamadas a la acción o elementos interactivos podría mejorar la jerarquía visual del diseño.</t>
+          <t>La paleta de colores es básica; considerar introducir un color secundario o acentos para destacar elementos clave y mejorar la estética general.</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mantiene un equilibrio, con un diseño que transmite profesionalismo en transacciones y una accesibilidad amigable que fomenta la comunidad. [2, 8, 32]</t>
+          <t>Mezcla de tono, más informal para interacciones personales y algo formal para noticias y páginas oficiales.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Su diseño es profesional y metódico, centrado en la eficiencia de la compra, aunque mantiene un tono accesible para el cliente. [5, 18, 31]</t>
+          <t>Predominantemente informal y visual, centrado en la expresión creativa y estilos de vida personales.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ha adoptado una estrategia más espontánea y abierta, inclinándose hacia un estilo informal que promueve cercanía y facilidad de uso. [33]</t>
+          <t>Estrictamente formal y profesional, diseñado para networking, búsqueda de empleo y desarrollo de negocios.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>El diseño es profesional y directo, centrado en la funcionalidad de comparación y armado de componentes de PC, transmitiendo seriedad.</t>
+          <t>Tono formal y funcional, típico de sitios de comercio electrónico y utilidades, enfocado en información de productos.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Adoptar un tono más amigable en descripciones o mensajes podría conectar mejor con usuarios menos técnicos, manteniendo profesionalismo.</t>
+          <t>El tono es adecuado para una tienda de componentes; sin embargo, un toque sutil de calidez podría mejorar la conexión con el usuario.</t>
         </is>
       </c>
     </row>
@@ -569,27 +569,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Presenta el icónico logotipo de dos manos estrechándose, que simboliza confianza, alianza y una sólida conexión dentro de su comunidad. [2, 8]</t>
+          <t>Íconos universales de redes sociales, botones de 'me gusta', perfiles de usuario y emoticonos reconocibles.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Destaca por la flecha de la sonrisa que va de la 'A' a la 'Z' en su logo, sugiriendo variedad y la satisfacción completa del cliente. [5]</t>
+          <t>Íconos minimalistas (corazón, burbuja de diálogo, avión de papel), con énfasis en las imágenes de perfil de usuario.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Utiliza un logotipo moderno que incluye elementos visuales distintivos, reforzando su identidad como una plataforma ágil de delivery. [45]</t>
+          <t>Íconos profesionales para conexiones, empleos y mensajes, junto con logotipos de empresas y fotos de perfil.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Un logo de ratón estilizado con 'Rity', e iconos de búsqueda y perfil genéricos, son claros y funcionales.</t>
+          <t>Íconos simples y funcionales: búsqueda, perfil de usuario y un logo de ratón 'PMCity' claro y directo en la cabecera.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>El diseño de iconos más únicos o un emblema secundario podría reforzar la singularidad de la marca en el nicho tecnológico.</t>
+          <t>Los íconos son funcionales pero sencillos; mejorar el diseño del logo y considerar íconos más modernos y coherentes visualmente.</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Integra funcionalidades para asegurar la usabilidad general, aunque detalles específicos de accesibilidad no fueron encontrados en la búsqueda. [2]</t>
+          <t>Generalmente buena accesibilidad con texto alternativo para imágenes y navegación por teclado bien implementada.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ofrece extensas funciones como VoiceView, textos ajustables y descripciones de audio, garantizando que su plataforma sea inclusiva para todos los usuarios. [7, 12, 25, 31]</t>
+          <t>Accesibilidad básica, incluyendo texto alternativo para fotos y soporte para lectores de pantalla en ciertas funciones.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Su rebranding abordó problemas previos de accesibilidad y contraste en la paleta de colores, buscando una mayor legibilidad para los usuarios. [33]</t>
+          <t>Buenas prácticas de accesibilidad, estructura semántica clara y navegación por teclado robusta para profesionales.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>La combinación de colores y tamaños de fuente ofrece buena legibilidad. No se aprecian características avanzadas de accesibilidad en la interfaz.</t>
+          <t>Aparentemente buen contraste de texto y navegación clara. No se observan barreras obvias en la interfaz visible.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Implementar opciones de contraste alto o herramientas de lectura de pantalla mejoraría la experiencia para usuarios con diversas necesidades visuales.</t>
+          <t>Asegurar que todos los elementos interactivos sean navegables por teclado y que las imágenes de productos incluyan descripciones de texto alternativo.</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cuenta con una interfaz de usuario intuitiva que guía a los usuarios, con botones clave para búsquedas y gestión de compras, facilitando el recorrido. [2]</t>
+          <t>Barra superior con secciones (Inicio, Watch, Marketplace), barra lateral extensa y barra de búsqueda prominentemente.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tiene una navegación fluida con una barra de búsqueda central, botones de compra rápida y un menú claro para explorar amplias categorías de productos. [18, 21, 31]</t>
+          <t>Barra de navegación inferior intuitiva (Inicio, Buscar, Reels, Tienda, Perfil) y botones superiores para mensajes.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ofrece una navegación sencilla, con botones destacados para pedidos, seguimiento y opciones de cuenta, optimizando la experiencia de entrega rápida.</t>
+          <t>Navegación superior global (Inicio, Mi red, Empleos) y un menú de perfil claro, estructurado para uso profesional.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>La barra superior presenta enlaces vitales: 'Información', 'Arma tu PC', 'Comparar', y una barra de búsqueda prominente.</t>
+          <t>Cabecera con enlaces 'Información', 'Arma tu PC', 'Comparar' y una barra de búsqueda visible, navegación directa.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Una disposición mejorada de los elementos clave, destacando 'Arma tu PC', podría optimizar el flujo de usuarios.</t>
+          <t>La navegación principal es clara; se podría añadir un 'carrito' de compras o un historial de búsquedas para mejorar la experiencia del usuario.</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Opera con una estructura jerárquica y funcional, con divisiones claras en tecnología, operaciones y finanzas, optimizando su gestión regional. [27, 29, 43]</t>
+          <t>Organización basada en un 'feed' de noticias, secciones para grupos, páginas y perfiles personales.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Presenta una estructura organizacional funcional y jerárquica, con equipos especializados en funciones y divisiones geográficas, permitiendo una gestión global eficiente. [23, 24, 35]</t>
+          <t>Perfiles en cuadrícula, 'feed' y 'stories'; organización visual que enfatiza la disposición y el descubrimiento de contenido.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Como parte de Delivery Hero, su organización interna se enfoca en la eficiencia operativa para gestionar entregas en múltiples mercados. [47]</t>
+          <t>Centrado en el perfil, 'feed' de noticias, listados de empleo y páginas de empresa, con secciones estructuradas para datos profesionales.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>La página está organizada con un encabezado fijo, título principal y componentes populares en un diseño de cuadrícula estructurada.</t>
+          <t>Cabecera, título principal y sección de 'Componentes populares' en un diseño de cuadrícula claro y simple para productos.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Añadir filtros o categorías claras para los componentes populares facilitaría la exploración y la búsqueda de productos específicos.</t>
+          <t>La organización es lógica para productos; considerar filtros de búsqueda avanzada y categorización de componentes para facilitar la exploración.</t>
         </is>
       </c>
     </row>
@@ -697,27 +697,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ofrece un ecosistema integral de servicios como Mercado Pago y Mercado Envíos, expandiendo sus capacidades más allá de las compras básicas. [2]</t>
+          <t>Messenger, Marketplace, Grupos, Eventos, Juegos y transmisiones en vivo, ofreciendo un amplio conjunto de funciones.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Destaca por sus recomendaciones personalizadas, pedidos con un clic, y características innovadoras como Amazon Go y el asistente virtual Alexa. [20, 21, 31]</t>
+          <t>Reels, Stories, IGTV, Tienda y Live, un conjunto robusto de funciones para compartir y consumir contenido multimedia.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Permite el seguimiento de pedidos en tiempo real, opciones de pago variadas y personalización de pedidos, enriqueciendo la experiencia de delivery.</t>
+          <t>Búsqueda de empleo, LinkedIn Learning, artículos profesionales y grupos temáticos, herramientas profesionales completas.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Las funciones de 'Arma tu PC' y 'Comparar' indican herramientas interactivas avanzadas para configurar y evaluar hardware.</t>
+          <t>'Arma tu PC' y 'Comparar', funciones muy relevantes para su propósito, que añaden valor directo al usuario.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Destacar visiblemente las características únicas como 'Arma tu PC' con descripciones claras invitaría a más usuarios a explorarlas.</t>
+          <t>Las funciones de 'Arma tu PC' y 'Comparar' son excelentes; se podría integrar un sistema de reseñas de usuarios o foros para productos.</t>
         </is>
       </c>
     </row>
@@ -729,59 +729,59 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>La plataforma integra guías claras para vendedores sobre cómo usar sus herramientas, lo que facilita la creación y gestión de tiendas online. [44]</t>
+          <t>Centro de ayuda extenso con guías detalladas para funciones, consejos de seguridad y normas comunitarias.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Proporciona una bienvenida opcional para nuevos usuarios y asistentes de voz que incluyen tutoriales en pantalla, facilitando la adaptación del usuario. [20, 28]</t>
+          <t>Centro de ayuda, guías para usar funciones como Reels o Stories, y configuración de privacidad.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Incorpora instrucciones sencillas para realizar pedidos, personalizar entregas y utilizar las funcionalidades de la aplicación de manera intuitiva.</t>
+          <t>LinkedIn Learning (premium), extenso centro de ayuda y artículos de consejos profesionales y guías de uso.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>El título 'Aprendé, Armá y Compará' sugiere una sección educativa, aunque no hay tutoriales explícitos visibles aquí.</t>
+          <t>La sección 'Aprende' sugiere contenido educativo, y la función 'Arma tu PC' actúa como un tutorial guiado de construcción.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ofrecer mini-guías o tooltips interactivos sobre cómo usar las funciones de armado y comparación podría enriquecer la experiencia.</t>
+          <t>Sería beneficioso incluir tutoriales de montaje o guías detalladas para principiantes, accesibles directamente desde las secciones 'Aprende' o 'Información'.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>User Interface Cohesion</t>
+          <t>Overall User Experience</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A pesar de una arquitectura inicial fragmentada, ha logrado una identidad unificada con elementos visuales consistentes en todo su ecosistema. [2, 44]</t>
+          <t>Experiencia integral, pero puede ser abrumadora por la cantidad de funciones, aunque intuitiva en lo básico.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Posee una cohesión de interfaz excepcional, manteniendo un diseño limpio y consistente en el sitio web, aplicaciones y materiales de marketing globalmente. [5, 18, 31]</t>
+          <t>Muy atractiva y visual, intuitiva para compartir medios, pero puede generar sobrecarga de contenido visual.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Su reciente proceso de rebranding buscó una identidad visual más holística, unificando la experiencia en todas sus plataformas digitales. [33]</t>
+          <t>Enfocada y eficiente para uso profesional, con rutas claras para networking y búsqueda de empleo, a veces algo formal.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>El diseño demuestra consistencia en tipografía, colores y disposición de elementos, generando una experiencia visual unificada y ordenada.</t>
+          <t>Directa y funcional para encontrar componentes de PC, con un diseño limpio y sencillo para navegar fácilmente por los productos.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Reforzar la identidad visual con elementos gráficos recurrentes, quizás en los cuadros de producto, podría aumentar la sensación de marca.</t>
+          <t>Para mejorar la experiencia general, optimizar los tiempos de carga de imágenes y añadir animaciones sutiles a las interacciones clave.</t>
         </is>
       </c>
     </row>

--- a/IA/tablas_generadas/tablita.xlsx
+++ b/IA/tablas_generadas/tablita.xlsx
@@ -473,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Utiliza fuentes sans-serif claras y legibles, como Segoe UI, con una jerarquía consistente para títulos y texto principal.</t>
+          <t>Utiliza Facebook Sans, una tipografía Sans-serif clara y legible, priorizando la coherencia en sus interfaces. [3]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Emplea tipografías sans-serif modernas y limpias, priorizando la legibilidad en subtítulos y descripciones de fotos.</t>
+          <t>Presenta una combinación de fuentes limpias para texto estándar, con opciones creativas para historias y gráficos. [5, 8]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fuentes sans-serif profesionales como Open Sans, garantizando alta legibilidad para contenido empresarial y perfiles detallados.</t>
+          <t>Muestra tipografías audaces y dinámicas, a menudo con efectos visuales, reflejando su naturaleza juvenil y enérgica. [2, 4, 14, 17]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tipografía sans-serif estándar y sencilla, lo que asegura buena legibilidad para nombres de productos y títulos.</t>
+          <t>La tipografía es funcional pero carece de un estilo distintivo, usando fuentes estándar sin mucha personalidad ni jerarquía visual clara. [11, 20]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Podría explorar una tipografía más distintiva o una paleta de fuentes complementarias para añadir carácter y diferenciación visual.</t>
+          <t>Considerar implementar una tipografía más moderna y única para diferenciar la marca visualmente y mejorar la jerarquía.</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Predominan azules y blancos, transmitiendo confianza y familiaridad, con un contraste elevado para la lectura.</t>
+          <t>Dominan los tonos azules clásicos y blanco, proyectando profesionalismo, confianza y una sensación de familiaridad. [15]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Logo con gradientes vibrantes, interfaz principalmente blanca y texto negro, destacando el contenido visual.</t>
+          <t>Se caracteriza por degradados vibrantes y colores cálidos, evocando creatividad, alegría y una estética moderna y atractiva. [8]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Esquema de colores corporativos: azul, blanco y gris, que proyecta profesionalismo y un entorno de trabajo serio.</t>
+          <t>Emplea una paleta de colores oscuros y neón, generando una atmósfera moderna, juvenil y energéticamente estimulante. [1]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dominante cabecera azul brillante con texto blanco, cuerpo de la página blanco con texto negro, colores funcionales.</t>
+          <t>La paleta de colores es básica y monocromática, lo que resulta en una apariencia algo genérica, plana y sin vida. [7, 11]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>La paleta de colores es básica; considerar introducir un color secundario o acentos para destacar elementos clave y mejorar la estética general.</t>
+          <t>Introducir una paleta de colores más rica y atractiva que refuerce la identidad de la plataforma y el contraste.</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mezcla de tono, más informal para interacciones personales y algo formal para noticias y páginas oficiales.</t>
+          <t>Adopta un tono predominantemente semi-formal, adecuado para conexiones personales, profesionales y comunicados oficiales. [13, 19]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Predominantemente informal y visual, centrado en la expresión creativa y estilos de vida personales.</t>
+          <t>Mantiene un estilo informal y visualmente atractivo, fomentando la expresión personal y la interacción casual entre usuarios. [5, 8]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Estrictamente formal y profesional, diseñado para networking, búsqueda de empleo y desarrollo de negocios.</t>
+          <t>Opera en un registro marcadamente informal y lúdico, celebrando la espontaneidad y el entretenimiento sin filtros. [2, 14]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tono formal y funcional, típico de sitios de comercio electrónico y utilidades, enfocado en información de productos.</t>
+          <t>El lenguaje y el diseño son neutrales, cayendo en un rango formal que puede percibirse como poco cercano para el usuario. [6, 7]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>El tono es adecuado para una tienda de componentes; sin embargo, un toque sutil de calidez podría mejorar la conexión con el usuario.</t>
+          <t>Evaluar un enfoque más informal en el lenguaje y diseño para fomentar mayor cercanía y participación activa de la audiencia.</t>
         </is>
       </c>
     </row>
@@ -569,27 +569,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Íconos universales de redes sociales, botones de 'me gusta', perfiles de usuario y emoticonos reconocibles.</t>
+          <t>Usa iconos planos y reconocibles universalmente, junto a un logo 'f' icónico y reacciones emotivas en el contenido. [12, 13, 15]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Íconos minimalistas (corazón, burbuja de diálogo, avión de papel), con énfasis en las imágenes de perfil de usuario.</t>
+          <t>Destaca por sus iconos minimalistas, el logo de la cámara fotográfica retro y elementos visuales para historias y reels. [5, 8]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Íconos profesionales para conexiones, empleos y mensajes, junto con logotipos de empresas y fotos de perfil.</t>
+          <t>Presenta iconos dinámicos y un emblema vibrante que resuenan con su audiencia joven y la cultura de videos cortos. [1]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Íconos simples y funcionales: búsqueda, perfil de usuario y un logo de ratón 'PMCity' claro y directo en la cabecera.</t>
+          <t>Los iconos son genéricos y poco memorables, careciendo de un estilo unificado o elementos emblemáticos propios. [7]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Los íconos son funcionales pero sencillos; mejorar el diseño del logo y considerar íconos más modernos y coherentes visualmente.</t>
+          <t>Desarrollar un conjunto de iconos personalizados y un emblema único que reflejen mejor la personalidad del sitio.</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Generalmente buena accesibilidad con texto alternativo para imágenes y navegación por teclado bien implementada.</t>
+          <t>Ofrece múltiples funciones de accesibilidad, incluyendo lectores de pantalla y opciones de contraste para usuarios. [12]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Accesibilidad básica, incluyendo texto alternativo para fotos y soporte para lectores de pantalla en ciertas funciones.</t>
+          <t>Ha mejorado su accesibilidad con texto alternativo para imágenes y subtítulos, aunque tiene áreas de oportunidad. [5, 8, 18]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Buenas prácticas de accesibilidad, estructura semántica clara y navegación por teclado robusta para profesionales.</t>
+          <t>Continúa mejorando características de accesibilidad como subtítulos automáticos y ajustes de texto para inclusión plena. [1]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Aparentemente buen contraste de texto y navegación clara. No se observan barreras obvias en la interfaz visible.</t>
+          <t>La accesibilidad es básica, con limitaciones en opciones de contraste, texto alternativo y navegación por teclado, dificultando el acceso. [10, 11]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Asegurar que todos los elementos interactivos sean navegables por teclado y que las imágenes de productos incluyan descripciones de texto alternativo.</t>
+          <t>Implementar un conjunto robusto de características de accesibilidad para garantizar un uso inclusivo para todos.</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Barra superior con secciones (Inicio, Watch, Marketplace), barra lateral extensa y barra de búsqueda prominentemente.</t>
+          <t>Posee una barra de navegación superior clara con accesos directos intuitivos a inicio, amigos y notificaciones. [19]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Barra de navegación inferior intuitiva (Inicio, Buscar, Reels, Tienda, Perfil) y botones superiores para mensajes.</t>
+          <t>Cuenta con una barra inferior prominente para inicio, búsqueda, reels, tienda y perfil, facilitando el acceso rápido. [5]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Navegación superior global (Inicio, Mi red, Empleos) y un menú de perfil claro, estructurado para uso profesional.</t>
+          <t>Su navegación se centra en un feed vertical infinito, con botones clave de inicio, seguir, crear y perfil. [1]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cabecera con enlaces 'Información', 'Arma tu PC', 'Comparar' y una barra de búsqueda visible, navegación directa.</t>
+          <t>Los botones de navegación son estándar y su jerarquía no es siempre clara, lo que puede confundir al usuario. [6, 7, 10]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>La navegación principal es clara; se podría añadir un 'carrito' de compras o un historial de búsquedas para mejorar la experiencia del usuario.</t>
+          <t>Rediseñar la navegación para que los botones importantes sean más intuitivos, visibles y con una jerarquía clara.</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Organización basada en un 'feed' de noticias, secciones para grupos, páginas y perfiles personales.</t>
+          <t>Estructura el contenido en un feed central y barras laterales para amigos/grupos, manteniendo la información organizada. [19]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Perfiles en cuadrícula, 'feed' y 'stories'; organización visual que enfatiza la disposición y el descubrimiento de contenido.</t>
+          <t>Organiza el contenido de forma visual, priorizando cuadrículas de fotos, historias efímeras y reels de videos cortos. [5]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Centrado en el perfil, 'feed' de noticias, listados de empleo y páginas de empresa, con secciones estructuradas para datos profesionales.</t>
+          <t>Su organización se basa en un algoritmo que personaliza el feed, presentando videos relevantes sin estructura rígida. [1]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cabecera, título principal y sección de 'Componentes populares' en un diseño de cuadrícula claro y simple para productos.</t>
+          <t>La organización del contenido es lineal y predecible, careciendo de dinamismo o personalización para el usuario. [7, 11]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>La organización es lógica para productos; considerar filtros de búsqueda avanzada y categorización de componentes para facilitar la exploración.</t>
+          <t>Explorar nuevas formas de organizar el contenido, quizás con personalización, para mejorar la experiencia del usuario.</t>
         </is>
       </c>
     </row>
@@ -697,27 +697,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Messenger, Marketplace, Grupos, Eventos, Juegos y transmisiones en vivo, ofreciendo un amplio conjunto de funciones.</t>
+          <t>Ofrece Marketplace, Grupos, Eventos y Páginas, enriqueciendo la interacción y expandiendo las funcionalidades. [19]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Reels, Stories, IGTV, Tienda y Live, un conjunto robusto de funciones para compartir y consumir contenido multimedia.</t>
+          <t>Incluye Stories, Reels, IGTV y la posibilidad de comprar directamente desde la aplicación, diversificando la experiencia. [5]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Búsqueda de empleo, LinkedIn Learning, artículos profesionales y grupos temáticos, herramientas profesionales completas.</t>
+          <t>Destaca por sus herramientas de edición de video, filtros creativos, efectos AR y duetos interactivos para usuarios. [1]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>'Arma tu PC' y 'Comparar', funciones muy relevantes para su propósito, que añaden valor directo al usuario.</t>
+          <t>Las características adicionales son mínimas o inexistentes, limitando la profundidad y la variedad de interacción del usuario.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Las funciones de 'Arma tu PC' y 'Comparar' son excelentes; se podría integrar un sistema de reseñas de usuarios o foros para productos.</t>
+          <t>Desarrollar e integrar características adicionales innovadoras que aporten valor y diferenciación a la plataforma.</t>
         </is>
       </c>
     </row>
@@ -729,59 +729,59 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Centro de ayuda extenso con guías detalladas para funciones, consejos de seguridad y normas comunitarias.</t>
+          <t>Proporciona secciones de ayuda extensas y guías paso a paso para todas sus funcionalidades y herramientas complejas. [19]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Centro de ayuda, guías para usar funciones como Reels o Stories, y configuración de privacidad.</t>
+          <t>Ofrece tutoriales integrados para nuevas funciones y un centro de ayuda robusto con preguntas frecuentes claras. [5, 8]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LinkedIn Learning (premium), extenso centro de ayuda y artículos de consejos profesionales y guías de uso.</t>
+          <t>Brinda guías visuales y consejos en la aplicación, ayudando a los usuarios a dominar rápidamente sus herramientas creativas. [1]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>La sección 'Aprende' sugiere contenido educativo, y la función 'Arma tu PC' actúa como un tutorial guiado de construcción.</t>
+          <t>Las instrucciones son escasas y no siempre fáciles de encontrar, lo que dificulta el aprendizaje de nuevas funciones.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sería beneficioso incluir tutoriales de montaje o guías detalladas para principiantes, accesibles directamente desde las secciones 'Aprende' o 'Información'.</t>
+          <t>Crear tutoriales claros, accesibles y bien organizados, junto con un centro de ayuda intuitivo para usuarios.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall User Experience</t>
+          <t>Conclusion</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Experiencia integral, pero puede ser abrumadora por la cantidad de funciones, aunque intuitiva en lo básico.</t>
+          <t>Una plataforma madura que equilibra comunicación personal con herramientas empresariales, manteniendo su relevancia global. [19]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Muy atractiva y visual, intuitiva para compartir medios, pero puede generar sobrecarga de contenido visual.</t>
+          <t>Se consolidó como líder visual, evolucionando constantemente para satisfacer las demandas de creadores y usuarios. [5]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Enfocada y eficiente para uso profesional, con rutas claras para networking y búsqueda de empleo, a veces algo formal.</t>
+          <t>Revolucionó el contenido de video corto, creando una cultura vibrante y una experiencia de usuario altamente adictiva. [1]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Directa y funcional para encontrar componentes de PC, con un diseño limpio y sencillo para navegar fácilmente por los productos.</t>
+          <t>Este sitio ofrece una base sólida, pero con un potencial inmenso para mejorar su atractivo visual y funcionalidad. [6, 7]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Para mejorar la experiencia general, optimizar los tiempos de carga de imágenes y añadir animaciones sutiles a las interacciones clave.</t>
+          <t>En general, el sitio podría beneficiarse enormemente de una renovación estética y funcional integral para destacar.</t>
         </is>
       </c>
     </row>

--- a/IA/tablas_generadas/tablita.xlsx
+++ b/IA/tablas_generadas/tablita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Utiliza Facebook Sans, una tipografía Sans-serif clara y legible, priorizando la coherencia en sus interfaces. [3]</t>
+          <t>La tipografía de Facebook utiliza fuentes sans-serif claras para asegurar legibilidad en su vasta interfaz de usuario. [1]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Presenta una combinación de fuentes limpias para texto estándar, con opciones creativas para historias y gráficos. [5, 8]</t>
+          <t>Instagram emplea una tipografía moderna y limpia, con fuentes personalizadas que complementan su estética visual. [2]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Muestra tipografías audaces y dinámicas, a menudo con efectos visuales, reflejando su naturaleza juvenil y enérgica. [2, 4, 14, 17]</t>
+          <t>X utiliza una tipografía sencilla y directa, priorizando la claridad y la lectura rápida de los mensajes cortos. [3]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>La tipografía es funcional pero carece de un estilo distintivo, usando fuentes estándar sin mucha personalidad ni jerarquía visual clara. [11, 20]</t>
+          <t>La elección tipográfica actual podría beneficiarse de mayor cohesión, para fortalecer la identidad visual. [4]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Considerar implementar una tipografía más moderna y única para diferenciar la marca visualmente y mejorar la jerarquía.</t>
+          <t>Asegurar una jerarquía visual más clara con la tipografía mejoraría la legibilidad y la organización del contenido. [5]</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dominan los tonos azules clásicos y blanco, proyectando profesionalismo, confianza y una sensación de familiaridad. [15]</t>
+          <t>Facebook se caracteriza por su distintivo azul y blanco, creando una identidad de marca reconocida globalmente. [1]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Se caracteriza por degradados vibrantes y colores cálidos, evocando creatividad, alegría y una estética moderna y atractiva. [8]</t>
+          <t>La paleta de colores de Instagram es vibrante y diversa, reflejando su enfoque en el contenido visual creativo. [2]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Emplea una paleta de colores oscuros y neón, generando una atmósfera moderna, juvenil y energéticamente estimulante. [1]</t>
+          <t>X emplea un esquema de colores minimalista, predominantemente blanco y negro con acentos azules. [3]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>La paleta de colores es básica y monocromática, lo que resulta en una apariencia algo genérica, plana y sin vida. [7, 11]</t>
+          <t>La combinación de colores en el sitio parece algo limitada y podría no evocar suficiente entusiasmo. [4]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Introducir una paleta de colores más rica y atractiva que refuerce la identidad de la plataforma y el contraste.</t>
+          <t>Considerar una paleta más audaz o temática podría hacer que el entorno visual sea más atractivo para usuarios. [5]</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adopta un tono predominantemente semi-formal, adecuado para conexiones personales, profesionales y comunicados oficiales. [13, 19]</t>
+          <t>Facebook mantiene un tono generalmente informal y personal, aunque adaptable a interacciones profesionales. [1]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mantiene un estilo informal y visualmente atractivo, fomentando la expresión personal y la interacción casual entre usuarios. [5, 8]</t>
+          <t>El tono de Instagram es marcadamente informal y aspiracional, invitando a la expresión personal y artística. [2]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Opera en un registro marcadamente informal y lúdico, celebrando la espontaneidad y el entretenimiento sin filtros. [2, 14]</t>
+          <t>X ofrece un tono versátil, permitiendo desde interacciones casuales hasta debates informativos y formales. [3]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>El lenguaje y el diseño son neutrales, cayendo en un rango formal que puede percibirse como poco cercano para el usuario. [6, 7]</t>
+          <t>El ambiente del sitio podría ser más acogedor y cercano para fomentar una comunidad de aficionados activa. [4]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Evaluar un enfoque más informal en el lenguaje y diseño para fomentar mayor cercanía y participación activa de la audiencia.</t>
+          <t>Establecer una voz más consistente, que refleje la pasión por los hobbies, ayudaría a la conexión emocional. [5]</t>
         </is>
       </c>
     </row>
@@ -569,27 +569,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Usa iconos planos y reconocibles universalmente, junto a un logo 'f' icónico y reacciones emotivas en el contenido. [12, 13, 15]</t>
+          <t>Facebook utiliza iconos universales y un logo simple (la 'f') que son instantáneamente reconocibles. [1]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Destaca por sus iconos minimalistas, el logo de la cámara fotográfica retro y elementos visuales para historias y reels. [5, 8]</t>
+          <t>Instagram destaca por sus iconos minimalistas y su logo de cámara retro, símbolos de su identidad visual. [2]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Presenta iconos dinámicos y un emblema vibrante que resuenan con su audiencia joven y la cultura de videos cortos. [1]</t>
+          <t>X ha evolucionado su emblema a una 'X' estilizada, manteniendo iconos funcionales para acciones rápidas. [3]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Los iconos son genéricos y poco memorables, careciendo de un estilo unificado o elementos emblemáticos propios. [7]</t>
+          <t>Se podrían incorporar más elementos gráficos únicos para reforzar la identidad y el tema de los hobbies. [4]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Desarrollar un conjunto de iconos personalizados y un emblema único que reflejen mejor la personalidad del sitio.</t>
+          <t>Desarrollar un conjunto de iconos o mascotas distintivos podría aumentar el reconocimiento de la plataforma. [5]</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ofrece múltiples funciones de accesibilidad, incluyendo lectores de pantalla y opciones de contraste para usuarios. [12]</t>
+          <t>Facebook ofrece herramientas de accesibilidad, como lectores de pantalla y subtítulos, para una inclusión amplia. [1]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ha mejorado su accesibilidad con texto alternativo para imágenes y subtítulos, aunque tiene áreas de oportunidad. [5, 8, 18]</t>
+          <t>Instagram ha mejorado su accesibilidad con descripciones de imágenes y controles intuitivos para todos los usuarios. [2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Continúa mejorando características de accesibilidad como subtítulos automáticos y ajustes de texto para inclusión plena. [1]</t>
+          <t>X trabaja en ofrecer funciones de accesibilidad, como textos alternativos, para mejorar la experiencia de usuario. [3]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>La accesibilidad es básica, con limitaciones en opciones de contraste, texto alternativo y navegación por teclado, dificultando el acceso. [10, 11]</t>
+          <t>Algunas funciones del sitio no parecen ser totalmente accesibles para usuarios con diferentes capacidades. [4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Implementar un conjunto robusto de características de accesibilidad para garantizar un uso inclusivo para todos.</t>
+          <t>Implementar pautas de diseño inclusivo garantizaría que todos los miembros puedan interactuar sin barreras. [5]</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Posee una barra de navegación superior clara con accesos directos intuitivos a inicio, amigos y notificaciones. [19]</t>
+          <t>La navegación de Facebook se centra en una barra superior con botones clave para inicio, notificaciones y perfil. [1]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cuenta con una barra inferior prominente para inicio, búsqueda, reels, tienda y perfil, facilitando el acceso rápido. [5]</t>
+          <t>Instagram prioriza una barra inferior con acceso directo a inicio, búsqueda, 'reels', compras y perfil. [2]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Su navegación se centra en un feed vertical infinito, con botones clave de inicio, seguir, crear y perfil. [1]</t>
+          <t>X ofrece una navegación clara con botones principales para el 'feed', explorar, notificaciones y mensajes. [3]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Los botones de navegación son estándar y su jerarquía no es siempre clara, lo que puede confundir al usuario. [6, 7, 10]</t>
+          <t>Los botones esenciales para la gestión del perfil o la búsqueda de grupos no siempre son fácilmente visibles. [4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rediseñar la navegación para que los botones importantes sean más intuitivos, visibles y con una jerarquía clara.</t>
+          <t>Reorganizar la disposición de los botones de navegación principales facilitaría enormemente la interacción del usuario. [5]</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Estructura el contenido en un feed central y barras laterales para amigos/grupos, manteniendo la información organizada. [19]</t>
+          <t>La organización de Facebook se basa en un feed de noticias personalizado y grupos temáticos estructurados. [1]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Organiza el contenido de forma visual, priorizando cuadrículas de fotos, historias efímeras y reels de videos cortos. [5]</t>
+          <t>Instagram organiza el contenido por feed, historias, y explorador, fomentando el descubrimiento visual. [2]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Su organización se basa en un algoritmo que personaliza el feed, presentando videos relevantes sin estructura rígida. [1]</t>
+          <t>X estructura la información en un timeline cronológico o algorítmico, con hilos y trending topics. [3]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>La organización del contenido es lineal y predecible, careciendo de dinamismo o personalización para el usuario. [7, 11]</t>
+          <t>La categorización del contenido de hobbies podría ser más intuitiva para encontrar intereses específicos rápidamente. [4]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Explorar nuevas formas de organizar el contenido, quizás con personalización, para mejorar la experiencia del usuario.</t>
+          <t>Mejorar la clasificación de contenidos y foros ayudaría a los usuarios a navegar y encontrar sus pasiones. [5]</t>
         </is>
       </c>
     </row>
@@ -697,27 +697,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ofrece Marketplace, Grupos, Eventos y Páginas, enriqueciendo la interacción y expandiendo las funcionalidades. [19]</t>
+          <t>Facebook incluye Marketplace, eventos, grupos, videollamadas y juegos, ofreciendo una amplia gama de funciones. [1]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Incluye Stories, Reels, IGTV y la posibilidad de comprar directamente desde la aplicación, diversificando la experiencia. [5]</t>
+          <t>Instagram integra 'Stories', 'Reels', compras, mensajes directos y filtros avanzados, enriqueciendo la experiencia. [2]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Destaca por sus herramientas de edición de video, filtros creativos, efectos AR y duetos interactivos para usuarios. [1]</t>
+          <t>X cuenta con 'Spaces', comunidades, temas de tendencia y 'Blue' para funciones avanzadas de usuario. [3]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Las características adicionales son mínimas o inexistentes, limitando la profundidad y la variedad de interacción del usuario.</t>
+          <t>Las funcionalidades adicionales para la interacción entre aficionados o la organización de eventos son limitadas. [4]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Desarrollar e integrar características adicionales innovadoras que aporten valor y diferenciación a la plataforma.</t>
+          <t>La adición de herramientas como calendarios de eventos o gestores de proyectos de hobbies potenciaría la comunidad. [5]</t>
         </is>
       </c>
     </row>
@@ -729,59 +729,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Proporciona secciones de ayuda extensas y guías paso a paso para todas sus funcionalidades y herramientas complejas. [19]</t>
+          <t>Facebook provee un centro de ayuda robusto con tutoriales y guías detalladas para sus múltiples funciones. [1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ofrece tutoriales integrados para nuevas funciones y un centro de ayuda robusto con preguntas frecuentes claras. [5, 8]</t>
+          <t>Instagram ofrece guías de uso en su sección de ayuda y consejos emergentes para nuevas funcionalidades. [2]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Brinda guías visuales y consejos en la aplicación, ayudando a los usuarios a dominar rápidamente sus herramientas creativas. [1]</t>
+          <t>X facilita una sección de soporte completa con instrucciones claras para resolver dudas y aprender. [3]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Las instrucciones son escasas y no siempre fáciles de encontrar, lo que dificulta el aprendizaje de nuevas funciones.</t>
+          <t>Los recursos de aprendizaje para nuevos usuarios o para entender todas las características parecen escasos. [4]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Crear tutoriales claros, accesibles y bien organizados, junto con un centro de ayuda intuitivo para usuarios.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Conclusion</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Una plataforma madura que equilibra comunicación personal con herramientas empresariales, manteniendo su relevancia global. [19]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Se consolidó como líder visual, evolucionando constantemente para satisfacer las demandas de creadores y usuarios. [5]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Revolucionó el contenido de video corto, creando una cultura vibrante y una experiencia de usuario altamente adictiva. [1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Este sitio ofrece una base sólida, pero con un potencial inmenso para mejorar su atractivo visual y funcionalidad. [6, 7]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>En general, el sitio podría beneficiarse enormemente de una renovación estética y funcional integral para destacar.</t>
+          <t>Crear una sección de tutoriales interactivos o videos explicativos guiaría mejor a los nuevos miembros. [5]</t>
         </is>
       </c>
     </row>

--- a/IA/tablas_generadas/tablita.xlsx
+++ b/IA/tablas_generadas/tablita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,315 +441,347 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>website_1_value</t>
+          <t>conclusion</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>website_2_value</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>website_3_value</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>website_4_value</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>conclusion</t>
+          <t>Sitio Web de la Imagen</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Typography</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La tipografía de Facebook utiliza fuentes sans-serif claras para asegurar legibilidad en su vasta interfaz de usuario. [1]</t>
+          <t>Considerar simplificar la arquitectura general para una navegación más intuitiva y una carga de página más rápida.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Instagram emplea una tipografía moderna y limpia, con fuentes personalizadas que complementan su estética visual. [2]</t>
+          <t>Presenta una interfaz robusta, azulada y familiar, enfocada en compartir contenido variado y conectar. [1, 5]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>X utiliza una tipografía sencilla y directa, priorizando la claridad y la lectura rápida de los mensajes cortos. [3]</t>
+          <t>Domina con un diseño limpio, centrado en videos de alta calidad y recomendaciones personalizadas. [1, 5]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>La elección tipográfica actual podría beneficiarse de mayor cohesión, para fortalecer la identidad visual. [4]</t>
+          <t>Ofrece un diseño minimalista, visualmente atractivo, priorizando imágenes y videos cortos cautivadores. [1, 5]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Asegurar una jerarquía visual más clara con la tipografía mejoraría la legibilidad y la organización del contenido. [5]</t>
+          <t>Es un sitio web de comercio electrónico o informativo centrado en componentes de PC. Ofrece herramientas para 'Aprender, Armar y Comparar'. Presenta una interfaz limpia con una cabecera azul y contenido principal blanco, mostrando componentes populares en una cuadrícula.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colors</t>
+          <t>Typography</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facebook se caracteriza por su distintivo azul y blanco, creando una identidad de marca reconocida globalmente. [1]</t>
+          <t>Es fundamental estandarizar las fuentes y tamaños para mejorar la coherencia visual y la experiencia de lectura.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>La paleta de colores de Instagram es vibrante y diversa, reflejando su enfoque en el contenido visual creativo. [2]</t>
+          <t>Utiliza 'Facebook Sans' o 'Segoe UI' para legibilidad, manteniendo un texto claro y funcional en toda la plataforma.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>X emplea un esquema de colores minimalista, predominantemente blanco y negro con acentos azules. [3]</t>
+          <t>Emplea 'Roboto', proporcionando una tipografía moderna, limpia y legible para títulos y descripciones de video.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>La combinación de colores en el sitio parece algo limitada y podría no evocar suficiente entusiasmo. [4]</t>
+          <t>Prefiere 'Roboto' o 'System font', asegurando una tipografía sencilla y elegante que complementa el contenido visual.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Considerar una paleta más audaz o temática podría hacer que el entorno visual sea más atractivo para usuarios. [5]</t>
+          <t>Utiliza una tipografía sans-serif estándar para la mayoría de los textos. Es legible y funcional, pero carece de un estilo distintivo. Los tamaños de fuente son adecuados para títulos y descripciones de productos, manteniendo una coherencia básica.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Formal vs. Informal</t>
+          <t>Colors</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facebook mantiene un tono generalmente informal y personal, aunque adaptable a interacciones profesionales. [1]</t>
+          <t>Optimizar la paleta de colores para asegurar una mayor armonía visual y resaltar elementos clave eficazmente.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>El tono de Instagram es marcadamente informal y aspiracional, invitando a la expresión personal y artística. [2]</t>
+          <t>Predominan azules y blancos, transmitiendo confianza y profesionalismo, con énfasis en la marca reconocida globalmente.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>X ofrece un tono versátil, permitiendo desde interacciones casuales hasta debates informativos y formales. [3]</t>
+          <t>Combina rojo y blanco, creando un contraste vibrante que destaca los videos y elementos interactivos importantes.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>El ambiente del sitio podría ser más acogedor y cercano para fomentar una comunidad de aficionados activa. [4]</t>
+          <t>Muestra gradientes vibrantes y un fondo blanco, enfatizando un diseño moderno y centrado en la creatividad visual.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Establecer una voz más consistente, que refleje la pasión por los hobbies, ayudaría a la conexión emocional. [5]</t>
+          <t>La paleta de colores principal es azul vibrante para la cabecera y blanco para el fondo principal. El texto es mayormente negro. El contraste general es bueno, pero la combinación de colores es básica y funcional, no particularmente distintiva o emocional.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Characters / Icons / Emblems</t>
+          <t>Formal vs. Informal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facebook utiliza iconos universales y un logo simple (la 'f') que son instantáneamente reconocibles. [1]</t>
+          <t>Definir un tono de comunicación más consistente y adecuado para el público objetivo mejoraría la percepción.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Instagram destaca por sus iconos minimalistas y su logo de cámara retro, símbolos de su identidad visual. [2]</t>
+          <t>Equilibra formalidad en perfil de negocio con informalidad personal, adaptándose a diversos contextos sociales.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>X ha evolucionado su emblema a una 'X' estilizada, manteniendo iconos funcionales para acciones rápidas. [3]</t>
+          <t>Generalmente informal, fomentando la creatividad y expresión personal en contenido, comentarios y branding.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Se podrían incorporar más elementos gráficos únicos para reforzar la identidad y el tema de los hobbies. [4]</t>
+          <t>Es mayormente informal, promoviendo la autenticidad y el estilo de vida personal a través de sus publicaciones visuales.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Desarrollar un conjunto de iconos o mascotas distintivos podría aumentar el reconocimiento de la plataforma. [5]</t>
+          <t>El tono es mayormente funcional e informativo, lo que lo sitúa en un punto intermedio, ligeramente informal debido a la redacción directa ('Aprende, Arma y Compara'). El diseño general es práctico, sin elementos excesivamente formales o lúdicos.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Accessibility</t>
+          <t>Characters / Icons / Emblems</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facebook ofrece herramientas de accesibilidad, como lectores de pantalla y subtítulos, para una inclusión amplia. [1]</t>
+          <t>Revisar la iconografía para que sea más intuitiva y universal, facilitando así una mejor comprensión global.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Instagram ha mejorado su accesibilidad con descripciones de imágenes y controles intuitivos para todos los usuarios. [2]</t>
+          <t>Utiliza íconos universales y un pulgar arriba emblemático, facilitando reconocimiento y navegación rápida.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>X trabaja en ofrecer funciones de accesibilidad, como textos alternativos, para mejorar la experiencia de usuario. [3]</t>
+          <t>Presenta íconos de reproducción y un logo distintivo que simboliza su función central de video.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Algunas funciones del sitio no parecen ser totalmente accesibles para usuarios con diferentes capacidades. [4]</t>
+          <t>Iconografía minimalista y reconocible, incluyendo el corazón y la burbuja de comentarios, claves para interacción.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Implementar pautas de diseño inclusivo garantizaría que todos los miembros puedan interactuar sin barreras. [5]</t>
+          <t>El sitio presenta un logo minimalista que parece una combinación de un ratón de PC o un ventilador con el texto 'Pity'. Hay íconos básicos para buscar y perfil de usuario, todos en estilo de contorno, que son funcionales pero no muy elaborados.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Navigation (important buttons)</t>
+          <t>Accessibility</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La navegación de Facebook se centra en una barra superior con botones clave para inicio, notificaciones y perfil. [1]</t>
+          <t>Priorizar mejoras en la accesibilidad para personas con discapacidades garantizará un alcance de usuario más amplio.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Instagram prioriza una barra inferior con acceso directo a inicio, búsqueda, 'reels', compras y perfil. [2]</t>
+          <t>Ofrece opciones de contraste, texto alternativo y navegación por teclado, mejorando la usabilidad para todos.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>X ofrece una navegación clara con botones principales para el 'feed', explorar, notificaciones y mensajes. [3]</t>
+          <t>Incluye subtítulos automáticos, controles de velocidad y atajos de teclado, ampliando el acceso al contenido. [1]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Los botones esenciales para la gestión del perfil o la búsqueda de grupos no siempre son fácilmente visibles. [4]</t>
+          <t>Integra texto alternativo en imágenes y controles de zoom, apoyando la accesibilidad visual para usuarios.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Reorganizar la disposición de los botones de navegación principales facilitaría enormemente la interacción del usuario. [5]</t>
+          <t>Basándose en el contraste de colores visible, la legibilidad del texto parece ser adecuada. Sin embargo, no se aprecian características avanzadas de accesibilidad como subtítulos o navegación por teclado en la imagen proporcionada.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Navigation (important buttons)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>La organización de Facebook se basa en un feed de noticias personalizado y grupos temáticos estructurados. [1]</t>
+          <t>La jerarquía de los botones principales debe ser más clara, guiando al usuario sin esfuerzo.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Instagram organiza el contenido por feed, historias, y explorador, fomentando el descubrimiento visual. [2]</t>
+          <t>Botones claros como 'Inicio', 'Perfil' y 'Notificaciones' están siempre visibles, dirigiendo la experiencia del usuario.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>X estructura la información en un timeline cronológico o algorítmico, con hilos y trending topics. [3]</t>
+          <t>Destaca 'Inicio', 'Suscripciones' y 'Biblioteca', esenciales para descubrir contenido y gestionar preferencias.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>La categorización del contenido de hobbies podría ser más intuitiva para encontrar intereses específicos rápidamente. [4]</t>
+          <t>Presenta botones intuitivos como 'Inicio', 'Buscar' y 'Perfil' para explorar y gestionar la cuenta.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mejorar la clasificación de contenidos y foros ayudaría a los usuarios a navegar y encontrar sus pasiones. [5]</t>
+          <t>Los botones de navegación clave en la cabecera son 'Información', 'Arma tu PC' y 'Comparar', junto con un campo de búsqueda prominente. Estos son claros y bien ubicados, proporcionando acceso directo a las funciones principales del sitio.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Extra features</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Facebook incluye Marketplace, eventos, grupos, videollamadas y juegos, ofreciendo una amplia gama de funciones. [1]</t>
+          <t>Mejorar la organización del contenido a través de categorías o etiquetas ayudará a la fácil búsqueda.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Instagram integra 'Stories', 'Reels', compras, mensajes directos y filtros avanzados, enriqueciendo la experiencia. [2]</t>
+          <t>Organiza contenido en un feed cronológico o algorítmico, con secciones dedicadas a grupos y eventos.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>X cuenta con 'Spaces', comunidades, temas de tendencia y 'Blue' para funciones avanzadas de usuario. [3]</t>
+          <t>Estructura contenido en canales, listas de reproducción y categorías, optimizando la búsqueda y el consumo.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Las funcionalidades adicionales para la interacción entre aficionados o la organización de eventos son limitadas. [4]</t>
+          <t>Organiza publicaciones en un feed personal y explora por hashtags y ubicaciones, facilitando el descubrimiento visual.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>La adición de herramientas como calendarios de eventos o gestores de proyectos de hobbies potenciaría la comunidad. [5]</t>
+          <t>El contenido está organizado de forma lógica, con una sección principal para 'Componentes populares' mostrados en una cuadrícula de productos. Cada producto tiene su imagen y nombre, lo que facilita la exploración y búsqueda de componentes.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Extra features</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Considerar la implementación de funciones interactivas adicionales que enriquezcan la participación del usuario.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ofrece Marketplace, Grupos, Eventos y Messenger, expandiendo las interacciones más allá del feed. [5]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Incluye transmisiones en vivo, YouTube Shorts y membresías de canal, ampliando las opciones de contenido.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Proporciona Reels, Stories, IGTV y Shopping, enriqueciendo la experiencia visual y comercial.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Además de la visualización de productos, el sitio promete funcionalidades de 'Arma tu PC' y 'Comparar', lo que sugiere herramientas interactivas para construir y evaluar configuraciones de hardware. Estas son características distintivas para un sitio de este tipo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tutorials or Instructions</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Facebook provee un centro de ayuda robusto con tutoriales y guías detalladas para sus múltiples funciones. [1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Instagram ofrece guías de uso en su sección de ayuda y consejos emergentes para nuevas funcionalidades. [2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>X facilita una sección de soporte completa con instrucciones claras para resolver dudas y aprender. [3]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Los recursos de aprendizaje para nuevos usuarios o para entender todas las características parecen escasos. [4]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Crear una sección de tutoriales interactivos o videos explicativos guiaría mejor a los nuevos miembros. [5]</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Desarrollar tutoriales claros e interactivos mejorará significativamente la adopción y retención de usuarios nuevos.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Presenta un centro de ayuda robusto y guías para nuevas características, asistiendo a los usuarios.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ofrece guías para creadores y un centro de ayuda exhaustivo, apoyando tanto a consumidores como a productores.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Proporciona un centro de ayuda completo y tutoriales integrados para nuevas funciones, mejorando la usabilidad.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Aunque el lema principal incluye 'Aprende', no hay tutoriales o instrucciones explícitas visibles en la página actual. Se esperaría que una sección de 'Información' o 'Aprende' contenga guías para el usuario, pero no se muestran directamente aquí.</t>
         </is>
       </c>
     </row>

--- a/IA/tablas_generadas/tablita.xlsx
+++ b/IA/tablas_generadas/tablita.xlsx
@@ -446,344 +446,292 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Coursera</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>edX</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Khan Academy</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Sitio Web de la Imagen</t>
+          <t>Sitio web de la imagen</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Website</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Considerar simplificar la arquitectura general para una navegación más intuitiva y una carga de página más rápida.</t>
-        </is>
-      </c>
+          <t>Tipografía</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Presenta una interfaz robusta, azulada y familiar, enfocada en compartir contenido variado y conectar. [1, 5]</t>
+          <t>Emplea Source Sans Pro y Noto Sans Pro para una legibilidad global, soportando múltiples idiomas y optimizando la velocidad de carga en dispositivos.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Domina con un diseño limpio, centrado en videos de alta calidad y recomendaciones personalizadas. [1, 5]</t>
+          <t>Utiliza las fuentes Inter y Roboto para una apariencia moderna y limpia, priorizando la legibilidad y claridad en todo su contenido digital.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ofrece un diseño minimalista, visualmente atractivo, priorizando imágenes y videos cortos cautivadores. [1, 5]</t>
+          <t>Emplea una fuente personalizada "Chalky" para elementos visuales y Museo Sans con Helvetica para la mayor parte del texto, logrando un tono amigable.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Es un sitio web de comercio electrónico o informativo centrado en componentes de PC. Ofrece herramientas para 'Aprender, Armar y Comparar'. Presenta una interfaz limpia con una cabecera azul y contenido principal blanco, mostrando componentes populares en una cuadrícula.</t>
+          <t>Utiliza tipografías sans-serif claras y estándar (como Arial o Helvetica, o equivalentes web-safe) para asegurar legibilidad en títulos, navegación y descripciones de productos.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Typography</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Es fundamental estandarizar las fuentes y tamaños para mejorar la coherencia visual y la experiencia de lectura.</t>
-        </is>
-      </c>
+          <t>Colores</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Utiliza 'Facebook Sans' o 'Segoe UI' para legibilidad, manteniendo un texto claro y funcional en toda la plataforma.</t>
+          <t>Su paleta principal de azul, negro y blanco, utilizada para coherencia y confianza, se complementa con tonos cálidos inspirados en la naturaleza.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Emplea 'Roboto', proporcionando una tipografía moderna, limpia y legible para títulos y descripciones de video.</t>
+          <t>Predominan el blanco y verde oscuro, que transmiten transparencia, progreso y crecimiento, mientras que el logotipo tiene matices de burdeos, gris y azul.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Prefiere 'Roboto' o 'System font', asegurando una tipografía sencilla y elegante que complementa el contenido visual.</t>
+          <t>Usa un sistema de colores flexible con azul Khan y verde azulado junto con blanco, buscando accesibilidad y una identidad de marca vibrante.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Utiliza una tipografía sans-serif estándar para la mayoría de los textos. Es legible y funcional, pero carece de un estilo distintivo. Los tamaños de fuente son adecuados para títulos y descripciones de productos, manteniendo una coherencia básica.</t>
+          <t>La paleta de colores principal es azul (para el encabezado) y blanco (para el fondo del contenido), complementada con texto negro y detalles en gris claro, lo que le da un aspecto limpio y tecnológico.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Colors</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Optimizar la paleta de colores para asegurar una mayor armonía visual y resaltar elementos clave eficazmente.</t>
-        </is>
-      </c>
+          <t>Formal vs. Informal</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Predominan azules y blancos, transmitiendo confianza y profesionalismo, con énfasis en la marca reconocida globalmente.</t>
+          <t>Mantiene un tono profesional y formal, reflejando su oferta de cursos de universidades y empresas, ideal para el desarrollo académico.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Combina rojo y blanco, creando un contraste vibrante que destaca los videos y elementos interactivos importantes.</t>
+          <t>Proyecta una imagen académica formal y profesional, alineándose con las prestigiosas instituciones educativas que ofrecen contenido en su plataforma.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Muestra gradientes vibrantes y un fondo blanco, enfatizando un diseño moderno y centrado en la creatividad visual.</t>
+          <t>Adopta un tono más informal y de apoyo, especialmente en su contenido infantil, fomentando una experiencia de aprendizaje alegre y personalizada.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>La paleta de colores principal es azul vibrante para la cabecera y blanco para el fondo principal. El texto es mayormente negro. El contraste general es bueno, pero la combinación de colores es básica y funcional, no particularmente distintiva o emocional.</t>
+          <t>Presenta un tono formal y profesional, adecuado para una plataforma de información y venta de componentes tecnológicos, enfocándose en la funcionalidad y la comparación de productos.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Formal vs. Informal</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Definir un tono de comunicación más consistente y adecuado para el público objetivo mejoraría la percepción.</t>
-        </is>
-      </c>
+          <t>Caracteres/Iconos/Emblemas</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Equilibra formalidad en perfil de negocio con informalidad personal, adaptándose a diversos contextos sociales.</t>
+          <t>Su logotipo presenta una "C" como punto de entrada, simbolizando trayectorias de aprendizaje transformadoras, con iconos estándar para funciones.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Generalmente informal, fomentando la creatividad y expresión personal en contenido, comentarios y branding.</t>
+          <t>El logotipo distintivo "edX" y su "X" resaltada simbolizan la colaboración educativa, aunque carece de otros caracteres o emblemas prominentes.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Es mayormente informal, promoviendo la autenticidad y el estilo de vida personal a través de sus publicaciones visuales.</t>
+          <t>Su logo incluye un diseño de planta/estudiante leyendo, dentro de un hexágono, que simboliza el crecimiento; la aplicación infantil presenta a Kodi Bear.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>El tono es mayormente funcional e informativo, lo que lo sitúa en un punto intermedio, ligeramente informal debido a la redacción directa ('Aprende, Arma y Compara'). El diseño general es práctico, sin elementos excesivamente formales o lúdicos.</t>
+          <t>Cuenta con un logotipo distintivo de un ratón de ordenador estilizado con el texto "Rity" (o "Pity"). Utiliza iconos funcionales como una lupa para la búsqueda y una silueta de persona para la cuenta de usuario.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Characters / Icons / Emblems</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Revisar la iconografía para que sea más intuitiva y universal, facilitando así una mejor comprensión global.</t>
-        </is>
-      </c>
+          <t>Accesibilidad</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Utiliza íconos universales y un pulgar arriba emblemático, facilitando reconocimiento y navegación rápida.</t>
+          <t>Se adhiere a WCAG 2.2 AA, ofrece subtítulos en todos los videos, opciones de reproducción automática y auditorías independientes para mejorar la accesibilidad.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Presenta íconos de reproducción y un logo distintivo que simboliza su función central de video.</t>
+          <t>Busca la conformidad con WCAG 2.1 AA, garantizando subtítulos temporizados en videos y promoviendo herramientas de autoría accesibles para proveedores de contenido.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Iconografía minimalista y reconocible, incluyendo el corazón y la burbuja de comentarios, claves para interacción.</t>
+          <t>Ofrece amplias funciones de accesibilidad, como ocultar contenido visual, reducir animaciones, videos sin color y soporte completo para lectores de pantalla.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>El sitio presenta un logo minimalista que parece una combinación de un ratón de PC o un ventilador con el texto 'Pity'. Hay íconos básicos para buscar y perfil de usuario, todos en estilo de contorno, que son funcionales pero no muy elaborados.</t>
+          <t>Visualmente, el sitio presenta un buen contraste de colores entre el fondo y el texto, y los elementos de navegación son de tamaño legible, lo que sugiere una consideración básica de la accesibilidad, aunque sin poder confirmar características avanzadas desde la imagen.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Accessibility</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Priorizar mejoras en la accesibilidad para personas con discapacidades garantizará un alcance de usuario más amplio.</t>
-        </is>
-      </c>
+          <t>Navegación (botones importantes)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ofrece opciones de contraste, texto alternativo y navegación por teclado, mejorando la usabilidad para todos.</t>
+          <t>Presenta una navegación clara con botones clave como el de configuración (engranaje) en el reproductor de video, facilitando flujos de usuario intuitivos.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Incluye subtítulos automáticos, controles de velocidad y atajos de teclado, ampliando el acceso al contenido. [1]</t>
+          <t>Proporciona controles accesibles por teclado y soporte para lectores de pantalla, mejorando la facilidad de uso para todos los estudiantes.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Integra texto alternativo en imágenes y controles de zoom, apoyando la accesibilidad visual para usuarios.</t>
+          <t>Su navegación es simple y predecible, con una barra de búsqueda y un logo que regresa a la página de inicio para facilitar el acceso.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Basándose en el contraste de colores visible, la legibilidad del texto parece ser adecuada. Sin embargo, no se aprecian características avanzadas de accesibilidad como subtítulos o navegación por teclado en la imagen proporcionada.</t>
+          <t>La navegación es clara y se encuentra en el encabezado, incluyendo una barra de búsqueda prominentemente colocada, y enlaces clave como "Información", "Arma tu PC" y "Comparar", junto con un icono de usuario para acceso a la cuenta.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Navigation (important buttons)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>La jerarquía de los botones principales debe ser más clara, guiando al usuario sin esfuerzo.</t>
-        </is>
-      </c>
+          <t>Organización</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Botones claros como 'Inicio', 'Perfil' y 'Notificaciones' están siempre visibles, dirigiendo la experiencia del usuario.</t>
+          <t>Estructura el contenido en cursos, especializaciones y títulos, con un diseño que organiza rutas de aprendizaje claras y seguimiento del progreso del estudiante.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Destaca 'Inicio', 'Suscripciones' y 'Biblioteca', esenciales para descubrir contenido y gestionar preferencias.</t>
+          <t>Organiza el contenido en cursos y programas universitarios, garantizando una progresión lógica y una estructura curricular clara para el aprendizaje.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Presenta botones intuitivos como 'Inicio', 'Buscar' y 'Perfil' para explorar y gestionar la cuenta.</t>
+          <t>El contenido se estructura en asignaturas, unidades y lecciones, ofreciendo ejercicios, videos y paneles personalizados para el seguimiento del aprendizaje.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Los botones de navegación clave en la cabecera son 'Información', 'Arma tu PC' y 'Comparar', junto con un campo de búsqueda prominente. Estos son claros y bien ubicados, proporcionando acceso directo a las funciones principales del sitio.</t>
+          <t>El contenido está bien organizado con un encabezado fijo, un título principal que resume la funcionalidad ("Aprendé, Armá y Compará") y una sección de "Componentes populares" presentada en una cuadrícula clara con imágenes y descripciones de productos.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mejorar la organización del contenido a través de categorías o etiquetas ayudará a la fácil búsqueda.</t>
-        </is>
-      </c>
+          <t>Funciones adicionales</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Organiza contenido en un feed cronológico o algorítmico, con secciones dedicadas a grupos y eventos.</t>
+          <t>Incluye asignaciones evaluadas por pares, herramientas avanzadas para matemáticas como EquatIO y LaTeX, además de certificados al finalizar los cursos.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Estructura contenido en canales, listas de reproducción y categorías, optimizando la búsqueda y el consumo.</t>
+          <t>Destaca por sus herramientas de autoría de cursos, notas de estudiantes y programas flexibles que permiten el aprendizaje a ritmo propio.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Organiza publicaciones en un feed personal y explora por hashtags y ubicaciones, facilitando el descubrimiento visual.</t>
+          <t>Proporciona paneles de aprendizaje personalizados, desafíos de maestría, descarga de contenido y una útil integración con College Board para preparación de exámenes.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>El contenido está organizado de forma lógica, con una sección principal para 'Componentes populares' mostrados en una cuadrícula de productos. Cada producto tiene su imagen y nombre, lo que facilita la exploración y búsqueda de componentes.</t>
+          <t>Las funciones clave destacadas incluyen un "Arma tu PC" (probablemente un configurador) y una herramienta de "Comparar" productos, lo que indica un enfoque en la personalización y la ayuda a la decisión de compra para el usuario.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Extra features</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Considerar la implementación de funciones interactivas adicionales que enriquezcan la participación del usuario.</t>
-        </is>
-      </c>
+          <t>Tutoriales/Instrucciones</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ofrece Marketplace, Grupos, Eventos y Messenger, expandiendo las interacciones más allá del feed. [5]</t>
+          <t>Ofrece un completo Centro de Ayuda y guías detalladas sobre cómo utilizar eficazmente la plataforma, incluyendo módulos semanales estructurados.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Incluye transmisiones en vivo, YouTube Shorts y membresías de canal, ampliando las opciones de contenido.</t>
+          <t>Publica guías de mejores prácticas de accesibilidad y ofrece orientación para que los proveedores de contenido creen materiales educativos inclusivos.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Proporciona Reels, Stories, IGTV y Shopping, enriqueciendo la experiencia visual y comercial.</t>
+          <t>Cuenta con guías de inicio, un centro de ayuda completo y videos instructivos sobre cómo maximizar el uso de su plataforma educativa gratuita.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Además de la visualización de productos, el sitio promete funcionalidades de 'Arma tu PC' y 'Comparar', lo que sugiere herramientas interactivas para construir y evaluar configuraciones de hardware. Estas son características distintivas para un sitio de este tipo.</t>
+          <t>El enlace "Información" en la navegación superior sugiere la presencia de recursos, guías o FAQs. Además, el lema "Aprendé" implica la existencia de contenido educativo o tutoriales para los usuarios.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tutorials or Instructions</t>
+          <t>Conclusión</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Desarrollar tutoriales claros e interactivos mejorará significativamente la adopción y retención de usuarios nuevos.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Presenta un centro de ayuda robusto y guías para nuevas características, asistiendo a los usuarios.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Ofrece guías para creadores y un centro de ayuda exhaustivo, apoyando tanto a consumidores como a productores.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Proporciona un centro de ayuda completo y tutoriales integrados para nuevas funciones, mejorando la usabilidad.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Aunque el lema principal incluye 'Aprende', no hay tutoriales o instrucciones explícitas visibles en la página actual. Se esperaría que una sección de 'Información' o 'Aprende' contenga guías para el usuario, pero no se muestran directamente aquí.</t>
-        </is>
-      </c>
+          <t>El sitio web de la imagen, aparentemente llamado "Rity" o "Pity", es una plataforma bien estructurada y profesional centrada en componentes de PC. Su diseño limpio con colores azul y blanco, junto con tipografías sans-serif estándar, facilita la legibilidad y una experiencia de usuario directa. Destaca por sus funcionalidades de "Arma tu PC" y "Comparar", lo que añade un gran valor para los usuarios que buscan construir o mejorar sus equipos. La navegación es clara y los productos están bien organizados. Para futuras mejoras, sería beneficioso explorar características de accesibilidad más avanzadas (ej. descripciones alt para imágenes, navegación por teclado), además de expandir los recursos educativos y guías que el lema "Aprendé" promete.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/IA/tablas_generadas/tablita.xlsx
+++ b/IA/tablas_generadas/tablita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,297 +441,253 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Tom's Hardware</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Micro Center</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Website from Image</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>conclusion</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Coursera</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>edX</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Khan Academy</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sitio web de la imagen</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tipografía</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>Typography &amp; Readability</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Uses clear, professional fonts with good line spacing, ensuring high readability for extensive articles and reviews. Text hierarchy is well-defined.</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Emplea Source Sans Pro y Noto Sans Pro para una legibilidad global, soportando múltiples idiomas y optimizando la velocidad de carga en dispositivos.</t>
+          <t>Employs standard e-commerce typography, clear for product listings and descriptions. Font sizes are appropriate for various content sections.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Utiliza las fuentes Inter y Roboto para una apariencia moderna y limpia, priorizando la legibilidad y claridad en todo su contenido digital.</t>
+          <t>Features legible fonts for product details and store information, maintaining a consistent, clean textual presentation across its site.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Emplea una fuente personalizada "Chalky" para elementos visuales y Museo Sans con Helvetica para la mayor parte del texto, logrando un tono amigable.</t>
+          <t>Simple, sans-serif fonts are used, generally clear for headings and product names. Line spacing appears adequate, contributing to basic readability.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Utiliza tipografías sans-serif claras y estándar (como Arial o Helvetica, o equivalentes web-safe) para asegurar legibilidad en títulos, navegación y descripciones de productos.</t>
+          <t>Enhance font variety to create stronger visual hierarchy. Consider adjusting text sizes and contrasts for better readability on product descriptions and comparisons.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colores</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Colors &amp; Branding</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Utilizes a tech-oriented color palette, typically blue and white, reinforcing its established brand identity as a serious tech authority.</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Su paleta principal de azul, negro y blanco, utilizada para coherencia y confianza, se complementa con tonos cálidos inspirados en la naturaleza.</t>
+          <t>Distinctive black, blue, and white palette is instantly recognizable, effectively communicating its brand as a major electronics retailer.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Predominan el blanco y verde oscuro, que transmiten transparencia, progreso y crecimiento, mientras que el logotipo tiene matices de burdeos, gris y azul.</t>
+          <t>Branding is consistent with its physical stores, using a clear logo and colors that project reliability and product focus.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Usa un sistema de colores flexible con azul Khan y verde azulado junto con blanco, buscando accesibilidad y una identidad de marca vibrante.</t>
+          <t>Dominated by a bright blue header and white background. The logo (resembling a mouse) is distinct. Branding seems nascent but clear.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>La paleta de colores principal es azul (para el encabezado) y blanco (para el fondo del contenido), complementada con texto negro y detalles en gris claro, lo que le da un aspecto limpio y tecnológico.</t>
+          <t>Refine the color palette to introduce more visual depth, perhaps using secondary colors. Ensure consistent logo placement and branding elements across all pages.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Formal vs. Informal</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>Visual Elements</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Features high-quality product photos, benchmark charts, and diagrams, essential for detailed hardware reviews. Visuals are informative.</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mantiene un tono profesional y formal, reflejando su oferta de cursos de universidades y empresas, ideal para el desarrollo académico.</t>
+          <t>Showcases crisp, professional product images from multiple angles, essential for online retail. Some videos and user-generated content are also present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Proyecta una imagen académica formal y profesional, alineándose con las prestigiosas instituciones educativas que ofrecen contenido en su plataforma.</t>
+          <t>Provides clear product photography and in-store visuals, supporting both online and brick-and-mortar presence. Images are informative and well-lit.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Adopta un tono más informal y de apoyo, especialmente en su contenido infantil, fomentando una experiencia de aprendizaje alegre y personalizada.</t>
+          <t>Displays decent quality product images for components, clearly showing the items. Icons and overall graphical elements are minimal but functional.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Presenta un tono formal y profesional, adecuado para una plataforma de información y venta de componentes tecnológicos, enfocándose en la funcionalidad y la comparación de productos.</t>
+          <t>Incorporate more diverse visual elements, such as infographics or comparison charts. Consider higher resolution images for product details and user interface icons.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Caracteres/Iconos/Emblemas</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Navigation &amp; UX</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clear category menus and a robust search function allow users to easily find articles, reviews, or specific hardware information.</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Su logotipo presenta una "C" como punto de entrada, simbolizando trayectorias de aprendizaje transformadoras, con iconos estándar para funciones.</t>
+          <t>Intuitive navigation with extensive filters, categories, and a powerful search bar. Streamlined checkout process contributes to a strong UX.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>El logotipo distintivo "edX" y su "X" resaltada simbolizan la colaboración educativa, aunque carece de otros caracteres o emblemas prominentes.</t>
+          <t>Well-organized menus for products, departments, and store services. The search functionality is effective, leading to a smooth user journey.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Su logo incluye un diseño de planta/estudiante leyendo, dentro de un hexágono, que simboliza el crecimiento; la aplicación infantil presenta a Kodi Bear.</t>
+          <t>Navigation is simple with 'Información,' 'Arma tu PC,' 'Comparar.' A search bar is present. User experience seems straightforward for basic tasks.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cuenta con un logotipo distintivo de un ratón de ordenador estilizado con el texto "Rity" (o "Pity"). Utiliza iconos funcionales como una lupa para la búsqueda y una silueta de persona para la cuenta de usuario.</t>
+          <t>Expand main navigation options to cover more content areas comprehensively. Implement advanced search filters for components and improve overall site discoverability.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Accesibilidad</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Organization &amp; Structure</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Logically structured content with clear categories (CPUs, GPUs, Motherboards). Articles are well-formatted with headings and subheadings for easy reading.</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Se adhiere a WCAG 2.2 AA, ofrece subtítulos en todos los videos, opciones de reproducción automática y auditorías independientes para mejorar la accesibilidad.</t>
+          <t>Excellent product categorization and logical grouping of accessories, brands, and deals. Product pages are structured for easy information absorption.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Busca la conformidad con WCAG 2.1 AA, garantizando subtítulos temporizados en videos y promoviendo herramientas de autoría accesibles para proveedores de contenido.</t>
+          <t>Content is well-categorized by product type, brand, and usage. Store-specific information is also clearly segmented, aiding user access.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ofrece amplias funciones de accesibilidad, como ocultar contenido visual, reducir animaciones, videos sin color y soporte completo para lectores de pantalla.</t>
+          <t>Content is organized into 'Popular Components' with basic product listings. The layout is clean but could benefit from more detailed categorization.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Visualmente, el sitio presenta un buen contraste de colores entre el fondo y el texto, y los elementos de navegación son de tamaño legible, lo que sugiere una consideración básica de la accesibilidad, aunque sin poder confirmar características avanzadas desde la imagen.</t>
+          <t>Introduce clearer content sections beyond 'Popular Components.' Implement hierarchical categorization for products and information to improve content access.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Navegación (botones importantes)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>Accessibility</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Generally follows web accessibility guidelines, often providing alt text for images and keyboard navigability, crucial for diverse readership.</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Presenta una navegación clara con botones clave como el de configuración (engranaje) en el reproductor de video, facilitando flujos de usuario intuitivos.</t>
+          <t>Strives for accessibility, offering features like alt text and good contrast. It aims for a wide audience, though specific audit details vary.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Proporciona controles accesibles por teclado y soporte para lectores de pantalla, mejorando la facilidad de uso para todos los estudiantes.</t>
+          <t>Typically ensures basic accessibility, with clear text, sufficient contrast, and navigable elements to assist a broad user base.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Su navegación es simple y predecible, con una barra de búsqueda y un logo que regresa a la página de inicio para facilitar el acceso.</t>
+          <t>Basic accessibility seems present with clear text and simple layout. Specific features like alt text or advanced keyboard navigation require verification.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>La navegación es clara y se encuentra en el encabezado, incluyendo una barra de búsqueda prominentemente colocada, y enlaces clave como "Información", "Arma tu PC" y "Comparar", junto con un icono de usuario para acceso a la cuenta.</t>
+          <t>Implement comprehensive alt text for all images and interactive elements. Evaluate contrast ratios for text and backgrounds to meet WCAG standards.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Organización</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>Functionality &amp; Interactivity</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Offers interactive comparison tools, comment sections, and user accounts. Its core functionality revolves around content delivery and engagement.</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Estructura el contenido en cursos, especializaciones y títulos, con un diseño que organiza rutas de aprendizaje claras y seguimiento del progreso del estudiante.</t>
+          <t>High interactivity with user reviews, Q&amp;A, comprehensive filters, a robust shopping cart, and personalized recommendations, driving e-commerce.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Organiza el contenido en cursos y programas universitarios, garantizando una progresión lógica y una estructura curricular clara para el aprendizaje.</t>
+          <t>Provides functional product pages, store locators, customer support, and online ordering with in-store pickup options, enhancing user utility.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>El contenido se estructura en asignaturas, unidades y lecciones, ofreciendo ejercicios, videos y paneles personalizados para el seguimiento del aprendizaje.</t>
+          <t>Features a search bar and displays product listings. The 'Arma tu PC' and 'Comparar' links suggest interactive build/comparison tools.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>El contenido está bien organizado con un encabezado fijo, un título principal que resume la funcionalidad ("Aprendé, Armá y Compará") y una sección de "Componentes populares" presentada en una cuadrícula clara con imágenes y descripciones de productos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Funciones adicionales</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Incluye asignaciones evaluadas por pares, herramientas avanzadas para matemáticas como EquatIO y LaTeX, además de certificados al finalizar los cursos.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Destaca por sus herramientas de autoría de cursos, notas de estudiantes y programas flexibles que permiten el aprendizaje a ritmo propio.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Proporciona paneles de aprendizaje personalizados, desafíos de maestría, descarga de contenido y una útil integración con College Board para preparación de exámenes.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Las funciones clave destacadas incluyen un "Arma tu PC" (probablemente un configurador) y una herramienta de "Comparar" productos, lo que indica un enfoque en la personalización y la ayuda a la decisión de compra para el usuario.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Tutoriales/Instrucciones</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Ofrece un completo Centro de Ayuda y guías detalladas sobre cómo utilizar eficazmente la plataforma, incluyendo módulos semanales estructurados.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Publica guías de mejores prácticas de accesibilidad y ofrece orientación para que los proveedores de contenido creen materiales educativos inclusivos.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Cuenta con guías de inicio, un centro de ayuda completo y videos instructivos sobre cómo maximizar el uso de su plataforma educativa gratuita.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>El enlace "Información" en la navegación superior sugiere la presencia de recursos, guías o FAQs. Además, el lema "Aprendé" implica la existencia de contenido educativo o tutoriales para los usuarios.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Conclusión</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>El sitio web de la imagen, aparentemente llamado "Rity" o "Pity", es una plataforma bien estructurada y profesional centrada en componentes de PC. Su diseño limpio con colores azul y blanco, junto con tipografías sans-serif estándar, facilita la legibilidad y una experiencia de usuario directa. Destaca por sus funcionalidades de "Arma tu PC" y "Comparar", lo que añade un gran valor para los usuarios que buscan construir o mejorar sus equipos. La navegación es clara y los productos están bien organizados. Para futuras mejoras, sería beneficioso explorar características de accesibilidad más avanzadas (ej. descripciones alt para imágenes, navegación por teclado), además de expandir los recursos educativos y guías que el lema "Aprendé" promete.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+          <t>Ensure 'Arma tu PC' and 'Comparar' tools are highly intuitive and feature-rich. Implement dynamic filters for component lists and consider user review submission.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/IA/tablas_generadas/tablita.xlsx
+++ b/IA/tablas_generadas/tablita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Tom's Hardware</t>
+          <t>Newegg</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Newegg</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Micro Center</t>
+          <t>PcComponentes</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Website from Image</t>
+          <t>Rity PC</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -468,224 +468,252 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Typography &amp; Readability</t>
+          <t>Website Description</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Uses clear, professional fonts with good line spacing, ensuring high readability for extensive articles and reviews. Text hierarchy is well-defined.</t>
+          <t>Minorista online líder en hardware y electrónica para PC, popular entre entusiastas y constructores de PC.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Employs standard e-commerce typography, clear for product listings and descriptions. Font sizes are appropriate for various content sections.</t>
+          <t>El gigante del comercio electrónico global que ofrece una vasta selección de componentes de PC y electrónica.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Features legible fonts for product details and store information, maintaining a consistent, clean textual presentation across its site.</t>
+          <t>Tienda online española líder en informática y tecnología, conocida por precios competitivos y servicio al cliente.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Simple, sans-serif fonts are used, generally clear for headings and product names. Line spacing appears adequate, contributing to basic readability.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Enhance font variety to create stronger visual hierarchy. Consider adjusting text sizes and contrasts for better readability on product descriptions and comparisons.</t>
-        </is>
-      </c>
+          <t>Un sitio web de e-commerce especializado en componentes de PC, con una interfaz sencilla y enfocado en la exhibición de productos populares.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colors &amp; Branding</t>
+          <t>Typography &amp; Readability</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Utilizes a tech-oriented color palette, typically blue and white, reinforcing its established brand identity as a serious tech authority.</t>
+          <t>Newegg utiliza una tipografía clara y legible, a menudo en tonos oscuros sobre fondos claros, lo que favorece una buena experiencia de lectura prolongada. Las jerarquías visuales están bien definidas mediante tamaños y pesos de fuente.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Distinctive black, blue, and white palette is instantly recognizable, effectively communicating its brand as a major electronics retailer.</t>
+          <t>Amazon emplea una tipografía sencilla y universal (mayormente Arial o similar) para asegurar la máxima legibilidad en todos los dispositivos. El texto es claro y el tamaño de fuente es consistente para facilitar la lectura.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Branding is consistent with its physical stores, using a clear logo and colors that project reliability and product focus.</t>
+          <t>PcComponentes utiliza una tipografía moderna y clara, con un buen contraste que facilita la lectura de descripciones y especificaciones de productos. La coherencia tipográfica mejora la experiencia.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dominated by a bright blue header and white background. The logo (resembling a mouse) is distinct. Branding seems nascent but clear.</t>
+          <t>Emplea una tipografía sans-serif clara y legible sobre fondos blancos, asegurando un buen contraste visual. Los títulos son prominentes, facilitando la jerarquía de la información presentada.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Refine the color palette to introduce more visual depth, perhaps using secondary colors. Ensure consistent logo placement and branding elements across all pages.</t>
+          <t>Implementar una mayor variación tipográfica para destacar información crucial, como precios o promociones. Considerar el uso de fuentes web optimizadas para una carga más rápida.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Visual Elements</t>
+          <t>Colors &amp; Branding</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Features high-quality product photos, benchmark charts, and diagrams, essential for detailed hardware reviews. Visuals are informative.</t>
+          <t>Su paleta de colores predominante es el negro, gris y naranja, transmitiendo una imagen de tecnología, modernidad y fiabilidad. El naranja actúa como acento para llamadas a la acción importantes, reforzando la marca.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Showcases crisp, professional product images from multiple angles, essential for online retail. Some videos and user-generated content are also present.</t>
+          <t>La marca se basa en el azul y naranja sobre fondos blancos, proyectando confianza, accesibilidad y eficiencia. El uso del naranja para acciones importantes es distintivo y efectivo en el branding.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Provides clear product photography and in-store visuals, supporting both online and brick-and-mortar presence. Images are informative and well-lit.</t>
+          <t>Su branding se caracteriza por el blanco, negro y rojo/naranja, transmitiendo energía, dinamismo y ofertas. El uso de colores vibrantes destaca promociones y elementos interactivos importantes.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Displays decent quality product images for components, clearly showing the items. Icons and overall graphical elements are minimal but functional.</t>
+          <t>La paleta se basa en un azul vibrante en la cabecera, con blanco y negro para el contenido principal. El branding es minimalista, con un logo de ratón sencillo y un nombre corto.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Incorporate more diverse visual elements, such as infographics or comparison charts. Consider higher resolution images for product details and user interface icons.</t>
+          <t>Podría introducir un color de acento secundario para elementos interactivos, haciendo el sitio más dinámico. Un uso más consistente del azul podría reforzar la identidad de marca.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Navigation &amp; UX</t>
+          <t>Visual Elements</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clear category menus and a robust search function allow users to easily find articles, reviews, or specific hardware information.</t>
+          <t>Abundan las imágenes de productos de alta calidad, diagramas técnicos y videos, cruciales para informar al comprador de componentes. Los iconos son funcionales y ayudan a la navegación.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Intuitive navigation with extensive filters, categories, and a powerful search bar. Streamlined checkout process contributes to a strong UX.</t>
+          <t>Muestra innumerables imágenes de productos desde múltiples ángulos y con zooms, así como videos explicativos. El diseño es funcional, priorizando el contenido sobre la estética elaborada.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Well-organized menus for products, departments, and store services. The search functionality is effective, leading to a smooth user journey.</t>
+          <t>Presenta imágenes de alta calidad de productos, banners de ofertas atractivos y maquetas de configuración de PC. El diseño visual es limpio y moderno, priorizando la información clave.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Navigation is simple with 'Información,' 'Arma tu PC,' 'Comparar.' A search bar is present. User experience seems straightforward for basic tasks.</t>
+          <t>Muestra imágenes de productos en cajas blancas uniformes, claras y funcionales. Los iconos son básicos y el diseño carece de elementos gráficos complejos o animaciones atractivas.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Expand main navigation options to cover more content areas comprehensively. Implement advanced search filters for components and improve overall site discoverability.</t>
+          <t>Integrar imágenes de productos con múltiples vistas o modelos 3D para una mejor apreciación. Añadir íconos más descriptivos o elementos gráficos para categorías.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Organization &amp; Structure</t>
+          <t>Navigation &amp; UX</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Logically structured content with clear categories (CPUs, GPUs, Motherboards). Articles are well-formatted with headings and subheadings for easy reading.</t>
+          <t>Ofrece una navegación robusta con múltiples filtros y categorías detalladas, optimizada para la búsqueda de componentes específicos. La experiencia de usuario se centra en la eficiencia y el acceso rápido a la información técnica.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Excellent product categorization and logical grouping of accessories, brands, and deals. Product pages are structured for easy information absorption.</t>
+          <t>Su navegación es extremadamente intuitiva, basada en una potente búsqueda y un sistema de categorías omnipresente. La UX está diseñada para la compra rápida y la gestión eficiente de grandes catálogos.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Content is well-categorized by product type, brand, and usage. Store-specific information is also clearly segmented, aiding user access.</t>
+          <t>La navegación es lógica y bien estructurada, con un menú principal intuitivo y filtros eficaces. La experiencia de usuario se enfoca en la facilidad de búsqueda y configuración de productos.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Content is organized into 'Popular Components' with basic product listings. The layout is clean but could benefit from more detailed categorization.</t>
+          <t>La navegación es directa con una barra de búsqueda y enlaces clave en la cabecera. La experiencia de usuario parece ser simple, aunque quizás limitada en opciones de filtrado.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Introduce clearer content sections beyond 'Popular Components.' Implement hierarchical categorization for products and information to improve content access.</t>
+          <t>Evaluar simplificar los menús de navegación para reducir la carga cognitiva del usuario y optimizar el flujo de búsqueda de productos. Añadir más opciones de filtrado inteligente.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Accessibility</t>
+          <t>Organization &amp; Structure</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Generally follows web accessibility guidelines, often providing alt text for images and keyboard navigability, crucial for diverse readership.</t>
+          <t>El sitio está altamente estructurado por categorías de productos, con una organización lógica que facilita encontrar artículos específicos. Utiliza una arquitectura de información profunda pero bien indexada.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Strives for accessibility, offering features like alt text and good contrast. It aims for a wide audience, though specific audit details vary.</t>
+          <t>La estructura de Amazon es masiva pero bien organizada con jerarquías claras de categorías y subcategorías. El sistema de listados de productos y páginas de detalle es altamente eficiente.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Typically ensures basic accessibility, with clear text, sufficient contrast, and navigable elements to assist a broad user base.</t>
+          <t>Posee una organización clara por categorías y subcategorías de productos, permitiendo una exploración eficiente. La estructura de las fichas de producto es detallada y bien organizada.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Basic accessibility seems present with clear text and simple layout. Specific features like alt text or advanced keyboard navigation require verification.</t>
+          <t>La página principal está bien organizada con títulos claros y una cuadrícula de productos populares. La estructura es sencilla, priorizando la visibilidad de los artículos destacados.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Implement comprehensive alt text for all images and interactive elements. Evaluate contrast ratios for text and backgrounds to meet WCAG standards.</t>
+          <t>Revisar la estructura de las categorías de productos para asegurar una lógica intuitiva y evitar la confusión. La información de las fichas de producto podría ser más consistente y fácil de escanear.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Accessibility</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aunque no se enfoca primariamente en esto en sus comunicaciones, las prácticas estándar de contraste y etiquetado suelen estar presentes, aunque podría mejorar en algunos aspectos para usuarios con discapacidades.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Como plataforma global, Amazon suele incorporar características básicas de accesibilidad, como texto alternativo para imágenes y navegación por teclado, pero la variabilidad puede existir en el contenido generado por vendedores.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PcComponentes generalmente cumple con pautas de accesibilidad básicas, como buena legibilidad y navegación clara, pero como muchos sitios, podría beneficiarse de auditorías específicas para personas con diversas discapacidades.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>El alto contraste entre el texto negro y el fondo blanco favorece la legibilidad. Sin embargo, no se aprecian características avanzadas de accesibilidad como texto alternativo específico.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Implementar herramientas para ajustar el tamaño del texto y el contraste, y asegura la navegabilidad completa mediante teclado. Ofrece alternativas de texto para todos los elementos no textuales y subtítulos para videos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Functionality &amp; Interactivity</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Offers interactive comparison tools, comment sections, and user accounts. Its core functionality revolves around content delivery and engagement.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>High interactivity with user reviews, Q&amp;A, comprehensive filters, a robust shopping cart, and personalized recommendations, driving e-commerce.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Provides functional product pages, store locators, customer support, and online ordering with in-store pickup options, enhancing user utility.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Features a search bar and displays product listings. The 'Arma tu PC' and 'Comparar' links suggest interactive build/comparison tools.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Ensure 'Arma tu PC' and 'Comparar' tools are highly intuitive and feature-rich. Implement dynamic filters for component lists and consider user review submission.</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Presenta herramientas interactivas como filtros avanzados, constructores de PC y comparadores de productos. Los comentarios y valoraciones de usuarios son elementos interactivos clave para la toma de decisiones.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ofrece funcionalidades como listas de deseos, comparaciones, reviews de usuarios, preguntas y respuestas, y un sofisticado sistema de recomendaciones personalizadas, fomentando la interacción.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Integra funcionalidades como configuradores de PC, comparadores de productos, un sistema de opiniones y un servicio de atención al cliente interactivo, enriqueciendo la experiencia de compra.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ofrece funcionalidad básica de búsqueda y navegación en el sitio. Faltan herramientas interactivas avanzadas como configuradores de PC o filtros detallados para refinar la búsqueda.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Podrías añadir más funcionalidades interactivas, como un configurador de productos más avanzado o herramientas de comparación visuales. Optimiza los tiempos de carga para todas las interacciones.</t>
         </is>
       </c>
     </row>
